--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Round 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -461,14 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yogesh Kumar</t>
+          <t>Muku Akasaka</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>126000</v>
+        <v>-30000</v>
       </c>
       <c r="D2" t="n">
-        <v>126000</v>
+        <v>152100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>122100</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +489,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97200</v>
+        <v>-30000</v>
       </c>
       <c r="D3" t="n">
-        <v>97200</v>
+        <v>147200</v>
+      </c>
+      <c r="E3" t="n">
+        <v>117200</v>
       </c>
     </row>
     <row r="4">
@@ -493,14 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Puthirith Keo</t>
+          <t>Yogesh Kumar</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61000</v>
+        <v>126000</v>
       </c>
       <c r="D4" t="n">
-        <v>61000</v>
+        <v>-30000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>96000</v>
       </c>
     </row>
     <row r="5">
@@ -509,14 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>James Patterson</t>
+          <t xml:space="preserve">Mikkel Goh Cheng Kang </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54200</v>
+        <v>97200</v>
       </c>
       <c r="D5" t="n">
-        <v>54200</v>
+        <v>-30000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67200</v>
       </c>
     </row>
     <row r="6">
@@ -525,14 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Justin Qiang</t>
+          <t>Puthirith Keo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28700</v>
+        <v>61000</v>
       </c>
       <c r="D6" t="n">
-        <v>28700</v>
+        <v>-30000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31000</v>
       </c>
     </row>
     <row r="7">
@@ -541,14 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pragun Sikri</t>
+          <t>James Patterson</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16200</v>
+        <v>54200</v>
       </c>
       <c r="D7" t="n">
-        <v>16200</v>
+        <v>-30000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24200</v>
       </c>
     </row>
     <row r="8">
@@ -557,14 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oliver Chen</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4800</v>
+        <v>-30000</v>
       </c>
       <c r="D8" t="n">
-        <v>4800</v>
+        <v>51100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21100</v>
       </c>
     </row>
     <row r="9">
@@ -573,14 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wen Chang</t>
+          <t>Justin Qiang</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11300</v>
+        <v>28700</v>
       </c>
       <c r="D9" t="n">
-        <v>-11300</v>
+        <v>-30000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1300</v>
       </c>
     </row>
     <row r="10">
@@ -589,14 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eugene Castro</t>
+          <t>Pragun Sikri</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-11900</v>
+        <v>16200</v>
       </c>
       <c r="D10" t="n">
-        <v>-11900</v>
+        <v>-30000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-13800</v>
       </c>
     </row>
     <row r="11">
@@ -605,14 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Faez Ahmed Qureshi</t>
+          <t>Sean Tan Yuheng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-23800</v>
+        <v>11200</v>
       </c>
       <c r="D11" t="n">
-        <v>-23800</v>
+        <v>-30000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-18800</v>
       </c>
     </row>
     <row r="12">
@@ -621,14 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aaditya Sharma</t>
+          <t>Eugene Castro</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-30000</v>
+        <v>-11900</v>
       </c>
       <c r="D12" t="n">
-        <v>-30000</v>
+        <v>-9300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-21200</v>
       </c>
     </row>
     <row r="13">
@@ -637,14 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashwin Seshadari </t>
+          <t>Oliver Chen</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-30000</v>
+        <v>4800</v>
       </c>
       <c r="D13" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-25200</v>
       </c>
     </row>
     <row r="14">
@@ -653,14 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gordon Wu</t>
+          <t>Wen Chang</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-30000</v>
+        <v>-11300</v>
       </c>
       <c r="D14" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-41300</v>
       </c>
     </row>
     <row r="15">
@@ -669,14 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ka Hei Wong (Natalie)</t>
+          <t>Faez Ahmed Qureshi</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-30000</v>
+        <v>-23800</v>
       </c>
       <c r="D15" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-53800</v>
       </c>
     </row>
     <row r="16">
@@ -685,7 +732,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kar Way Tan</t>
+          <t>Aaditya Sharma</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -693,6 +740,9 @@
       </c>
       <c r="D16" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="17">
@@ -701,7 +751,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t xml:space="preserve">Ashwin Seshadari </t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -709,6 +759,9 @@
       </c>
       <c r="D17" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="18">
@@ -717,7 +770,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mayank Das</t>
+          <t>Gordon Wu</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -725,6 +778,9 @@
       </c>
       <c r="D18" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="19">
@@ -733,7 +789,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nathaniel Rajoo </t>
+          <t>Ka Hei Wong (Natalie)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -741,6 +797,9 @@
       </c>
       <c r="D19" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="20">
@@ -749,7 +808,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planning Jay Vynn Saw</t>
+          <t>Kar Way Tan</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -757,6 +816,9 @@
       </c>
       <c r="D20" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="21">
@@ -765,7 +827,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Quyen Do</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -773,6 +835,9 @@
       </c>
       <c r="D21" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="22">
@@ -781,7 +846,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Raphael Knupfer</t>
+          <t>Mayank Das</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -789,6 +854,9 @@
       </c>
       <c r="D22" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="23">
@@ -797,7 +865,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rohan Jain</t>
+          <t xml:space="preserve">Nathaniel Rajoo </t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -805,6 +873,9 @@
       </c>
       <c r="D23" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="24">
@@ -813,7 +884,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sean Tan Yuheng</t>
+          <t>Planning Jay Vynn Saw</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -821,6 +892,9 @@
       </c>
       <c r="D24" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="25">
@@ -829,7 +903,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Szeching Tay</t>
+          <t>Quyen Do</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -837,6 +911,9 @@
       </c>
       <c r="D25" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="26">
@@ -845,7 +922,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Xiaoying Chen</t>
+          <t>Raphael Knupfer</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -853,6 +930,9 @@
       </c>
       <c r="D26" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="27">
@@ -861,7 +941,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dharitri Kapoor </t>
+          <t>Rohan Jain</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -869,6 +949,9 @@
       </c>
       <c r="D27" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="28">
@@ -877,7 +960,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Haopengjiang</t>
+          <t>Szeching Tay</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -885,6 +968,9 @@
       </c>
       <c r="D28" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="29">
@@ -893,7 +979,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mingyang Wang </t>
+          <t>Xiaoying Chen</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -901,6 +987,9 @@
       </c>
       <c r="D29" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="30">
@@ -909,14 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t xml:space="preserve">Dharitri Kapoor </t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Haopengjiang</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mingyang Wang </t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Yilin</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-30000</v>
+      <c r="C33" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-60000</v>
       </c>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Round 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -466,17 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muku Akasaka</t>
+          <t xml:space="preserve">Mikkel Goh Cheng Kang </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-30000</v>
+        <v>97200</v>
       </c>
       <c r="D2" t="n">
-        <v>152100</v>
+        <v>147200</v>
       </c>
       <c r="E2" t="n">
-        <v>122100</v>
+        <v>-30000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>214400</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +493,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mikkel Goh Cheng Kang </t>
+          <t>Muku Akasaka</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>-30000</v>
       </c>
       <c r="D3" t="n">
-        <v>147200</v>
+        <v>122100</v>
       </c>
       <c r="E3" t="n">
-        <v>117200</v>
+        <v>24300</v>
+      </c>
+      <c r="F3" t="n">
+        <v>116400</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +515,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yogesh Kumar</t>
+          <t>Planning Jay Vynn Saw</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126000</v>
+        <v>-30000</v>
       </c>
       <c r="D4" t="n">
-        <v>-30000</v>
+        <v>143200</v>
       </c>
       <c r="E4" t="n">
-        <v>96000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>83200</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mikkel Goh Cheng Kang </t>
+          <t>Yogesh Kumar</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97200</v>
+        <v>126000</v>
       </c>
       <c r="D5" t="n">
         <v>-30000</v>
       </c>
       <c r="E5" t="n">
-        <v>67200</v>
+        <v>-30000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66000</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +569,10 @@
         <v>-30000</v>
       </c>
       <c r="E6" t="n">
-        <v>31000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +591,10 @@
         <v>-30000</v>
       </c>
       <c r="E7" t="n">
-        <v>24200</v>
+        <v>-30000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-5800</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +603,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Vincent Le</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>-30000</v>
       </c>
       <c r="D8" t="n">
-        <v>51100</v>
+        <v>-30000</v>
       </c>
       <c r="E8" t="n">
-        <v>21100</v>
+        <v>33000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-27000</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +635,10 @@
         <v>-30000</v>
       </c>
       <c r="E9" t="n">
-        <v>-1300</v>
+        <v>-30000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-31300</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +647,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pragun Sikri</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16200</v>
+        <v>-30000</v>
       </c>
       <c r="D10" t="n">
-        <v>-30000</v>
+        <v>21100</v>
       </c>
       <c r="E10" t="n">
-        <v>-13800</v>
+        <v>-30000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-38900</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +669,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sean Tan Yuheng</t>
+          <t>Pragun Sikri</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11200</v>
+        <v>16200</v>
       </c>
       <c r="D11" t="n">
         <v>-30000</v>
       </c>
       <c r="E11" t="n">
-        <v>-18800</v>
+        <v>-30000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-43800</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +691,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eugene Castro</t>
+          <t>Sean Tan Yuheng</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-11900</v>
+        <v>11200</v>
       </c>
       <c r="D12" t="n">
-        <v>-9300</v>
+        <v>-30000</v>
       </c>
       <c r="E12" t="n">
-        <v>-21200</v>
+        <v>-30000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-48800</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +713,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oliver Chen</t>
+          <t>Xiaoying Chen</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4800</v>
+        <v>9900</v>
       </c>
       <c r="D13" t="n">
         <v>-30000</v>
       </c>
       <c r="E13" t="n">
-        <v>-25200</v>
+        <v>-30000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-50100</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +735,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wen Chang</t>
+          <t>Eugene Castro</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-11300</v>
+        <v>-11900</v>
       </c>
       <c r="D14" t="n">
-        <v>-30000</v>
+        <v>-9300</v>
       </c>
       <c r="E14" t="n">
-        <v>-41300</v>
+        <v>-30000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-51200</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +757,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Faez Ahmed Qureshi</t>
+          <t>Oliver Chen</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-23800</v>
+        <v>4800</v>
       </c>
       <c r="D15" t="n">
         <v>-30000</v>
       </c>
       <c r="E15" t="n">
-        <v>-53800</v>
+        <v>-30000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-55200</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +779,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aaditya Sharma</t>
+          <t>Wen Chang</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-30000</v>
+        <v>-11300</v>
       </c>
       <c r="D16" t="n">
         <v>-30000</v>
       </c>
       <c r="E16" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-71300</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +801,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashwin Seshadari </t>
+          <t>Faez Ahmed Qureshi</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-30000</v>
+        <v>-23800</v>
       </c>
       <c r="D17" t="n">
         <v>-30000</v>
       </c>
       <c r="E17" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-83800</v>
       </c>
     </row>
     <row r="18">
@@ -770,7 +823,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gordon Wu</t>
+          <t>Aaditya Sharma</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -780,7 +833,10 @@
         <v>-30000</v>
       </c>
       <c r="E18" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="19">
@@ -789,7 +845,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ka Hei Wong (Natalie)</t>
+          <t xml:space="preserve">Ashwin Seshadari </t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -799,7 +855,10 @@
         <v>-30000</v>
       </c>
       <c r="E19" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="20">
@@ -808,7 +867,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kar Way Tan</t>
+          <t>Gordon Wu</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -818,7 +877,10 @@
         <v>-30000</v>
       </c>
       <c r="E20" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="21">
@@ -827,7 +889,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Ka Hei Wong (Natalie)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -837,7 +899,10 @@
         <v>-30000</v>
       </c>
       <c r="E21" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="22">
@@ -846,7 +911,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mayank Das</t>
+          <t>Kar Way Tan</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -856,7 +921,10 @@
         <v>-30000</v>
       </c>
       <c r="E22" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="23">
@@ -865,7 +933,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nathaniel Rajoo </t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -875,7 +943,10 @@
         <v>-30000</v>
       </c>
       <c r="E23" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="24">
@@ -884,7 +955,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planning Jay Vynn Saw</t>
+          <t>Mayank Das</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -894,7 +965,10 @@
         <v>-30000</v>
       </c>
       <c r="E24" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="25">
@@ -903,7 +977,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Quyen Do</t>
+          <t xml:space="preserve">Nathaniel Rajoo </t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -913,7 +987,10 @@
         <v>-30000</v>
       </c>
       <c r="E25" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="26">
@@ -922,7 +999,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Raphael Knupfer</t>
+          <t>Planning Jay Vynn Saw</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -932,7 +1009,10 @@
         <v>-30000</v>
       </c>
       <c r="E26" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="27">
@@ -941,7 +1021,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rohan Jain</t>
+          <t>Quyen Do</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -951,7 +1031,10 @@
         <v>-30000</v>
       </c>
       <c r="E27" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="28">
@@ -960,7 +1043,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Szeching Tay</t>
+          <t>Raphael Knupfer</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -970,7 +1053,10 @@
         <v>-30000</v>
       </c>
       <c r="E28" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="29">
@@ -979,7 +1065,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Xiaoying Chen</t>
+          <t>Rohan Jain</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -989,7 +1075,10 @@
         <v>-30000</v>
       </c>
       <c r="E29" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="30">
@@ -998,7 +1087,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dharitri Kapoor </t>
+          <t>Szeching Tay</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1008,7 +1097,10 @@
         <v>-30000</v>
       </c>
       <c r="E30" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="31">
@@ -1017,7 +1109,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Haopengjiang</t>
+          <t xml:space="preserve">Dharitri Kapoor </t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1027,7 +1119,10 @@
         <v>-30000</v>
       </c>
       <c r="E31" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="32">
@@ -1046,7 +1141,10 @@
         <v>-30000</v>
       </c>
       <c r="E32" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="33">
@@ -1065,7 +1163,10 @@
         <v>-30000</v>
       </c>
       <c r="E33" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-90000</v>
       </c>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Round 4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -478,13 +483,16 @@
         <v>97200</v>
       </c>
       <c r="D2" t="n">
-        <v>147200</v>
+        <v>117200</v>
       </c>
       <c r="E2" t="n">
         <v>-30000</v>
       </c>
       <c r="F2" t="n">
-        <v>214400</v>
+        <v>42000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>226400</v>
       </c>
     </row>
     <row r="3">
@@ -493,20 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muku Akasaka</t>
+          <t>Rohan Jain</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>-30000</v>
       </c>
       <c r="D3" t="n">
-        <v>122100</v>
+        <v>62900</v>
       </c>
       <c r="E3" t="n">
-        <v>24300</v>
+        <v>165700</v>
       </c>
       <c r="F3" t="n">
-        <v>116400</v>
+        <v>-30000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>168600</v>
       </c>
     </row>
     <row r="4">
@@ -515,20 +526,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planning Jay Vynn Saw</t>
+          <t>Kar Way Tan</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>-30000</v>
       </c>
       <c r="D4" t="n">
-        <v>143200</v>
+        <v>-30000</v>
       </c>
       <c r="E4" t="n">
-        <v>-30000</v>
+        <v>97200</v>
       </c>
       <c r="F4" t="n">
-        <v>83200</v>
+        <v>128800</v>
+      </c>
+      <c r="G4" t="n">
+        <v>166000</v>
       </c>
     </row>
     <row r="5">
@@ -537,20 +551,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yogesh Kumar</t>
+          <t>Eugene Castro</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>126000</v>
+        <v>-11900</v>
       </c>
       <c r="D5" t="n">
-        <v>-30000</v>
+        <v>-9300</v>
       </c>
       <c r="E5" t="n">
-        <v>-30000</v>
+        <v>64500</v>
       </c>
       <c r="F5" t="n">
-        <v>66000</v>
+        <v>57500</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100800</v>
       </c>
     </row>
     <row r="6">
@@ -559,20 +576,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Puthirith Keo</t>
+          <t>Muku Akasaka</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61000</v>
+        <v>-30000</v>
       </c>
       <c r="D6" t="n">
-        <v>-30000</v>
+        <v>122100</v>
       </c>
       <c r="E6" t="n">
-        <v>-30000</v>
+        <v>24300</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86400</v>
       </c>
     </row>
     <row r="7">
@@ -581,20 +601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>James Patterson</t>
+          <t>Planning Jay Vynn Saw</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54200</v>
+        <v>-30000</v>
       </c>
       <c r="D7" t="n">
-        <v>-30000</v>
+        <v>143200</v>
       </c>
       <c r="E7" t="n">
         <v>-30000</v>
       </c>
       <c r="F7" t="n">
-        <v>-5800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>53200</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +626,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vincent Le</t>
+          <t xml:space="preserve">Mingyang Wang </t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -613,10 +636,13 @@
         <v>-30000</v>
       </c>
       <c r="E8" t="n">
-        <v>33000</v>
+        <v>-30000</v>
       </c>
       <c r="F8" t="n">
-        <v>-27000</v>
+        <v>138000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48000</v>
       </c>
     </row>
     <row r="9">
@@ -625,11 +651,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Justin Qiang</t>
+          <t>Yogesh Kumar</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28700</v>
+        <v>126000</v>
       </c>
       <c r="D9" t="n">
         <v>-30000</v>
@@ -638,7 +664,10 @@
         <v>-30000</v>
       </c>
       <c r="F9" t="n">
-        <v>-31300</v>
+        <v>-30000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36000</v>
       </c>
     </row>
     <row r="10">
@@ -647,20 +676,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Sean Tan Yuheng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-30000</v>
+        <v>11200</v>
       </c>
       <c r="D10" t="n">
-        <v>21100</v>
+        <v>-30000</v>
       </c>
       <c r="E10" t="n">
-        <v>-30000</v>
+        <v>4100</v>
       </c>
       <c r="F10" t="n">
-        <v>-38900</v>
+        <v>28000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13300</v>
       </c>
     </row>
     <row r="11">
@@ -669,20 +701,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pragun Sikri</t>
+          <t>Hong Sheng Quah</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16200</v>
+        <v>-30000</v>
       </c>
       <c r="D11" t="n">
         <v>-30000</v>
       </c>
       <c r="E11" t="n">
-        <v>-30000</v>
+        <v>82000</v>
       </c>
       <c r="F11" t="n">
-        <v>-43800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-8000</v>
       </c>
     </row>
     <row r="12">
@@ -691,20 +726,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sean Tan Yuheng</t>
+          <t>Techin Kno</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11200</v>
+        <v>-30000</v>
       </c>
       <c r="D12" t="n">
-        <v>-30000</v>
+        <v>81400</v>
       </c>
       <c r="E12" t="n">
         <v>-30000</v>
       </c>
       <c r="F12" t="n">
-        <v>-48800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-8600</v>
       </c>
     </row>
     <row r="13">
@@ -713,20 +751,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Xiaoying Chen</t>
+          <t xml:space="preserve">Ashwin Seshadari </t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9900</v>
+        <v>-30000</v>
       </c>
       <c r="D13" t="n">
         <v>-30000</v>
       </c>
       <c r="E13" t="n">
-        <v>-30000</v>
+        <v>75100</v>
       </c>
       <c r="F13" t="n">
-        <v>-50100</v>
+        <v>-30000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-14900</v>
       </c>
     </row>
     <row r="14">
@@ -735,20 +776,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eugene Castro</t>
+          <t>Xiaoying Chen</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-11900</v>
+        <v>9900</v>
       </c>
       <c r="D14" t="n">
-        <v>-9300</v>
+        <v>-30000</v>
       </c>
       <c r="E14" t="n">
-        <v>-30000</v>
+        <v>28000</v>
       </c>
       <c r="F14" t="n">
-        <v>-51200</v>
+        <v>-30000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-22100</v>
       </c>
     </row>
     <row r="15">
@@ -757,11 +801,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Oliver Chen</t>
+          <t>Puthirith Keo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4800</v>
+        <v>61000</v>
       </c>
       <c r="D15" t="n">
         <v>-30000</v>
@@ -770,7 +814,10 @@
         <v>-30000</v>
       </c>
       <c r="F15" t="n">
-        <v>-55200</v>
+        <v>-30000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-29000</v>
       </c>
     </row>
     <row r="16">
@@ -779,11 +826,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wen Chang</t>
+          <t>James Patterson</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-11300</v>
+        <v>54200</v>
       </c>
       <c r="D16" t="n">
         <v>-30000</v>
@@ -792,7 +839,10 @@
         <v>-30000</v>
       </c>
       <c r="F16" t="n">
-        <v>-71300</v>
+        <v>-30000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-35800</v>
       </c>
     </row>
     <row r="17">
@@ -801,20 +851,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Faez Ahmed Qureshi</t>
+          <t>Vincent Le</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-23800</v>
+        <v>-30000</v>
       </c>
       <c r="D17" t="n">
         <v>-30000</v>
       </c>
       <c r="E17" t="n">
-        <v>-30000</v>
+        <v>33000</v>
       </c>
       <c r="F17" t="n">
-        <v>-83800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-57000</v>
       </c>
     </row>
     <row r="18">
@@ -823,11 +876,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aaditya Sharma</t>
+          <t>Justin Qiang</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-30000</v>
+        <v>28700</v>
       </c>
       <c r="D18" t="n">
         <v>-30000</v>
@@ -836,7 +889,10 @@
         <v>-30000</v>
       </c>
       <c r="F18" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-61300</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +901,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashwin Seshadari </t>
+          <t>Aaditya Sharma</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -855,10 +911,13 @@
         <v>-30000</v>
       </c>
       <c r="E19" t="n">
-        <v>-30000</v>
+        <v>25600</v>
       </c>
       <c r="F19" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-64400</v>
       </c>
     </row>
     <row r="20">
@@ -867,20 +926,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gordon Wu</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>-30000</v>
       </c>
       <c r="D20" t="n">
-        <v>-30000</v>
+        <v>21100</v>
       </c>
       <c r="E20" t="n">
         <v>-30000</v>
       </c>
       <c r="F20" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-68900</v>
       </c>
     </row>
     <row r="21">
@@ -889,11 +951,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ka Hei Wong (Natalie)</t>
+          <t>Pragun Sikri</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-30000</v>
+        <v>16200</v>
       </c>
       <c r="D21" t="n">
         <v>-30000</v>
@@ -902,7 +964,10 @@
         <v>-30000</v>
       </c>
       <c r="F21" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-73800</v>
       </c>
     </row>
     <row r="22">
@@ -911,11 +976,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kar Way Tan</t>
+          <t>Oliver Chen</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-30000</v>
+        <v>4800</v>
       </c>
       <c r="D22" t="n">
         <v>-30000</v>
@@ -924,7 +989,10 @@
         <v>-30000</v>
       </c>
       <c r="F22" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-85200</v>
       </c>
     </row>
     <row r="23">
@@ -933,7 +1001,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Raphael Knupfer</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -946,7 +1014,10 @@
         <v>-30000</v>
       </c>
       <c r="F23" t="n">
-        <v>-90000</v>
+        <v>-7200</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-97200</v>
       </c>
     </row>
     <row r="24">
@@ -955,11 +1026,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mayank Das</t>
+          <t>Wen Chang</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-30000</v>
+        <v>-11300</v>
       </c>
       <c r="D24" t="n">
         <v>-30000</v>
@@ -968,7 +1039,10 @@
         <v>-30000</v>
       </c>
       <c r="F24" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-101300</v>
       </c>
     </row>
     <row r="25">
@@ -977,11 +1051,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nathaniel Rajoo </t>
+          <t>Faez Ahmed Qureshi</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-30000</v>
+        <v>-23800</v>
       </c>
       <c r="D25" t="n">
         <v>-30000</v>
@@ -990,7 +1064,10 @@
         <v>-30000</v>
       </c>
       <c r="F25" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-113800</v>
       </c>
     </row>
     <row r="26">
@@ -999,7 +1076,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planning Jay Vynn Saw</t>
+          <t>Gordon Wu</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1012,7 +1089,10 @@
         <v>-30000</v>
       </c>
       <c r="F26" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="27">
@@ -1021,7 +1101,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Quyen Do</t>
+          <t>Ka Hei Wong (Natalie)</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1034,7 +1114,10 @@
         <v>-30000</v>
       </c>
       <c r="F27" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="28">
@@ -1043,7 +1126,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Raphael Knupfer</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1056,7 +1139,10 @@
         <v>-30000</v>
       </c>
       <c r="F28" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="29">
@@ -1065,7 +1151,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rohan Jain</t>
+          <t>Mayank Das</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1078,7 +1164,10 @@
         <v>-30000</v>
       </c>
       <c r="F29" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="30">
@@ -1087,7 +1176,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Szeching Tay</t>
+          <t xml:space="preserve">Nathaniel Rajoo </t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1100,7 +1189,10 @@
         <v>-30000</v>
       </c>
       <c r="F30" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="31">
@@ -1109,7 +1201,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dharitri Kapoor </t>
+          <t>Planning Jay Vynn Saw</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1122,7 +1214,10 @@
         <v>-30000</v>
       </c>
       <c r="F31" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="32">
@@ -1131,7 +1226,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mingyang Wang </t>
+          <t>Quyen Do</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1144,7 +1239,10 @@
         <v>-30000</v>
       </c>
       <c r="F32" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="33">
@@ -1153,20 +1251,73 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Szeching Tay</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dharitri Kapoor </t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Yilin</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-90000</v>
+      <c r="C35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-120000</v>
       </c>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Round 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -492,7 +497,10 @@
         <v>42000</v>
       </c>
       <c r="G2" t="n">
-        <v>226400</v>
+        <v>-300</v>
+      </c>
+      <c r="H2" t="n">
+        <v>256100</v>
       </c>
     </row>
     <row r="3">
@@ -501,23 +509,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rohan Jain</t>
+          <t>Kar Way Tan</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>-30000</v>
       </c>
       <c r="D3" t="n">
-        <v>62900</v>
+        <v>-30000</v>
       </c>
       <c r="E3" t="n">
-        <v>165700</v>
+        <v>97200</v>
       </c>
       <c r="F3" t="n">
-        <v>-30000</v>
+        <v>128800</v>
       </c>
       <c r="G3" t="n">
-        <v>168600</v>
+        <v>14000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>210000</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kar Way Tan</t>
+          <t xml:space="preserve">Mingyang Wang </t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,13 +547,16 @@
         <v>-30000</v>
       </c>
       <c r="E4" t="n">
-        <v>97200</v>
+        <v>-30000</v>
       </c>
       <c r="F4" t="n">
-        <v>128800</v>
+        <v>138000</v>
       </c>
       <c r="G4" t="n">
-        <v>166000</v>
+        <v>118700</v>
+      </c>
+      <c r="H4" t="n">
+        <v>196700</v>
       </c>
     </row>
     <row r="5">
@@ -551,23 +565,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eugene Castro</t>
+          <t>Muku Akasaka</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-11900</v>
+        <v>-30000</v>
       </c>
       <c r="D5" t="n">
-        <v>-9300</v>
+        <v>122100</v>
       </c>
       <c r="E5" t="n">
-        <v>64500</v>
+        <v>24300</v>
       </c>
       <c r="F5" t="n">
-        <v>57500</v>
+        <v>-30000</v>
       </c>
       <c r="G5" t="n">
-        <v>100800</v>
+        <v>70400</v>
+      </c>
+      <c r="H5" t="n">
+        <v>186800</v>
       </c>
     </row>
     <row r="6">
@@ -576,23 +593,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muku Akasaka</t>
+          <t>Rohan Jain</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>-30000</v>
       </c>
       <c r="D6" t="n">
-        <v>122100</v>
+        <v>62900</v>
       </c>
       <c r="E6" t="n">
-        <v>24300</v>
+        <v>165700</v>
       </c>
       <c r="F6" t="n">
         <v>-30000</v>
       </c>
       <c r="G6" t="n">
-        <v>86400</v>
+        <v>-30000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>168600</v>
       </c>
     </row>
     <row r="7">
@@ -601,23 +621,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planning Jay Vynn Saw</t>
+          <t>Sean Tan Yuheng</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-30000</v>
+        <v>11200</v>
       </c>
       <c r="D7" t="n">
-        <v>143200</v>
+        <v>-30000</v>
       </c>
       <c r="E7" t="n">
-        <v>-30000</v>
+        <v>4100</v>
       </c>
       <c r="F7" t="n">
-        <v>-30000</v>
+        <v>28000</v>
       </c>
       <c r="G7" t="n">
-        <v>53200</v>
+        <v>104700</v>
+      </c>
+      <c r="H7" t="n">
+        <v>148000</v>
       </c>
     </row>
     <row r="8">
@@ -626,23 +649,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mingyang Wang </t>
+          <t>Eugene Castro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-30000</v>
+        <v>-11900</v>
       </c>
       <c r="D8" t="n">
-        <v>-30000</v>
+        <v>-9300</v>
       </c>
       <c r="E8" t="n">
-        <v>-30000</v>
+        <v>64500</v>
       </c>
       <c r="F8" t="n">
-        <v>138000</v>
+        <v>57500</v>
       </c>
       <c r="G8" t="n">
-        <v>48000</v>
+        <v>-6200</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106500</v>
       </c>
     </row>
     <row r="9">
@@ -651,14 +677,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yogesh Kumar</t>
+          <t>Planning Jay Vynn Saw</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>126000</v>
+        <v>-30000</v>
       </c>
       <c r="D9" t="n">
-        <v>-30000</v>
+        <v>143200</v>
       </c>
       <c r="E9" t="n">
         <v>-30000</v>
@@ -667,7 +693,10 @@
         <v>-30000</v>
       </c>
       <c r="G9" t="n">
-        <v>36000</v>
+        <v>-30000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>53200</v>
       </c>
     </row>
     <row r="10">
@@ -676,23 +705,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sean Tan Yuheng</t>
+          <t>Yogesh Kumar</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11200</v>
+        <v>126000</v>
       </c>
       <c r="D10" t="n">
         <v>-30000</v>
       </c>
       <c r="E10" t="n">
-        <v>4100</v>
+        <v>-30000</v>
       </c>
       <c r="F10" t="n">
-        <v>28000</v>
+        <v>-30000</v>
       </c>
       <c r="G10" t="n">
-        <v>13300</v>
+        <v>-30000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36000</v>
       </c>
     </row>
     <row r="11">
@@ -717,6 +749,9 @@
         <v>-30000</v>
       </c>
       <c r="G11" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H11" t="n">
         <v>-8000</v>
       </c>
     </row>
@@ -742,6 +777,9 @@
         <v>-30000</v>
       </c>
       <c r="G12" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H12" t="n">
         <v>-8600</v>
       </c>
     </row>
@@ -767,6 +805,9 @@
         <v>-30000</v>
       </c>
       <c r="G13" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H13" t="n">
         <v>-14900</v>
       </c>
     </row>
@@ -792,6 +833,9 @@
         <v>-30000</v>
       </c>
       <c r="G14" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H14" t="n">
         <v>-22100</v>
       </c>
     </row>
@@ -801,11 +845,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Puthirith Keo</t>
+          <t>Pragun Sikri</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61000</v>
+        <v>16200</v>
       </c>
       <c r="D15" t="n">
         <v>-30000</v>
@@ -817,7 +861,10 @@
         <v>-30000</v>
       </c>
       <c r="G15" t="n">
-        <v>-29000</v>
+        <v>16000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-27800</v>
       </c>
     </row>
     <row r="16">
@@ -826,11 +873,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>James Patterson</t>
+          <t>Puthirith Keo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>54200</v>
+        <v>61000</v>
       </c>
       <c r="D16" t="n">
         <v>-30000</v>
@@ -842,7 +889,10 @@
         <v>-30000</v>
       </c>
       <c r="G16" t="n">
-        <v>-35800</v>
+        <v>-30000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-29000</v>
       </c>
     </row>
     <row r="17">
@@ -851,23 +901,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vincent Le</t>
+          <t>James Patterson</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-30000</v>
+        <v>54200</v>
       </c>
       <c r="D17" t="n">
         <v>-30000</v>
       </c>
       <c r="E17" t="n">
-        <v>33000</v>
+        <v>-30000</v>
       </c>
       <c r="F17" t="n">
         <v>-30000</v>
       </c>
       <c r="G17" t="n">
-        <v>-57000</v>
+        <v>-30000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-35800</v>
       </c>
     </row>
     <row r="18">
@@ -876,23 +929,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Justin Qiang</t>
+          <t>Vincent Le</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28700</v>
+        <v>-30000</v>
       </c>
       <c r="D18" t="n">
         <v>-30000</v>
       </c>
       <c r="E18" t="n">
-        <v>-30000</v>
+        <v>33000</v>
       </c>
       <c r="F18" t="n">
         <v>-30000</v>
       </c>
       <c r="G18" t="n">
-        <v>-61300</v>
+        <v>-30000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-57000</v>
       </c>
     </row>
     <row r="19">
@@ -901,23 +957,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aaditya Sharma</t>
+          <t>Justin Qiang</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-30000</v>
+        <v>28700</v>
       </c>
       <c r="D19" t="n">
         <v>-30000</v>
       </c>
       <c r="E19" t="n">
-        <v>25600</v>
+        <v>-30000</v>
       </c>
       <c r="F19" t="n">
         <v>-30000</v>
       </c>
       <c r="G19" t="n">
-        <v>-64400</v>
+        <v>-30000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-61300</v>
       </c>
     </row>
     <row r="20">
@@ -926,23 +985,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Aaditya Sharma</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>-30000</v>
       </c>
       <c r="D20" t="n">
-        <v>21100</v>
+        <v>-30000</v>
       </c>
       <c r="E20" t="n">
-        <v>-30000</v>
+        <v>25600</v>
       </c>
       <c r="F20" t="n">
         <v>-30000</v>
       </c>
       <c r="G20" t="n">
-        <v>-68900</v>
+        <v>-30000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-64400</v>
       </c>
     </row>
     <row r="21">
@@ -951,14 +1013,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pragun Sikri</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16200</v>
+        <v>-30000</v>
       </c>
       <c r="D21" t="n">
-        <v>-30000</v>
+        <v>21100</v>
       </c>
       <c r="E21" t="n">
         <v>-30000</v>
@@ -967,7 +1029,10 @@
         <v>-30000</v>
       </c>
       <c r="G21" t="n">
-        <v>-73800</v>
+        <v>-30000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-68900</v>
       </c>
     </row>
     <row r="22">
@@ -976,11 +1041,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oliver Chen</t>
+          <t>Raphael Knupfer</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4800</v>
+        <v>-30000</v>
       </c>
       <c r="D22" t="n">
         <v>-30000</v>
@@ -989,10 +1054,13 @@
         <v>-30000</v>
       </c>
       <c r="F22" t="n">
-        <v>-30000</v>
+        <v>-7200</v>
       </c>
       <c r="G22" t="n">
-        <v>-85200</v>
+        <v>-3300</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-70500</v>
       </c>
     </row>
     <row r="23">
@@ -1001,11 +1069,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Raphael Knupfer</t>
+          <t>Oliver Chen</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-30000</v>
+        <v>4800</v>
       </c>
       <c r="D23" t="n">
         <v>-30000</v>
@@ -1014,10 +1082,13 @@
         <v>-30000</v>
       </c>
       <c r="F23" t="n">
-        <v>-7200</v>
+        <v>-30000</v>
       </c>
       <c r="G23" t="n">
-        <v>-97200</v>
+        <v>-30000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-85200</v>
       </c>
     </row>
     <row r="24">
@@ -1042,6 +1113,9 @@
         <v>-30000</v>
       </c>
       <c r="G24" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H24" t="n">
         <v>-101300</v>
       </c>
     </row>
@@ -1067,6 +1141,9 @@
         <v>-30000</v>
       </c>
       <c r="G25" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H25" t="n">
         <v>-113800</v>
       </c>
     </row>
@@ -1076,7 +1153,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gordon Wu</t>
+          <t>Aaditya Sharma</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1092,6 +1169,9 @@
         <v>-30000</v>
       </c>
       <c r="G26" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H26" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1101,7 +1181,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ka Hei Wong (Natalie)</t>
+          <t>Gordon Wu</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1117,6 +1197,9 @@
         <v>-30000</v>
       </c>
       <c r="G27" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H27" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1126,7 +1209,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Ka Hei Wong (Natalie)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1142,6 +1225,9 @@
         <v>-30000</v>
       </c>
       <c r="G28" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H28" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1151,7 +1237,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mayank Das</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1167,6 +1253,9 @@
         <v>-30000</v>
       </c>
       <c r="G29" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H29" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1176,7 +1265,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nathaniel Rajoo </t>
+          <t>Mayank Das</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1192,6 +1281,9 @@
         <v>-30000</v>
       </c>
       <c r="G30" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H30" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1201,7 +1293,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planning Jay Vynn Saw</t>
+          <t xml:space="preserve">Nathaniel Rajoo </t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1217,6 +1309,9 @@
         <v>-30000</v>
       </c>
       <c r="G31" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H31" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1226,7 +1321,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Quyen Do</t>
+          <t>Planning Jay Vynn Saw</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1242,6 +1337,9 @@
         <v>-30000</v>
       </c>
       <c r="G32" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H32" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1251,7 +1349,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Szeching Tay</t>
+          <t>Quyen Do</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1267,6 +1365,9 @@
         <v>-30000</v>
       </c>
       <c r="G33" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H33" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1276,7 +1377,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dharitri Kapoor </t>
+          <t>Szeching Tay</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1292,6 +1393,9 @@
         <v>-30000</v>
       </c>
       <c r="G34" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H34" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1301,22 +1405,53 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t xml:space="preserve">Dharitri Kapoor </t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Yilin</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="C36" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H36" t="n">
         <v>-120000</v>
       </c>
     </row>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170013B-59AA-C74D-85E0-EEB5B94CC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11253809-50EF-9343-BE57-BE4ED09600CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Ayush Pathak</t>
   </si>
   <si>
-    <t>jethrohuangboy</t>
-  </si>
-  <si>
     <t>Justin Ong</t>
   </si>
   <si>
@@ -80,18 +77,12 @@
     <t>Steven Li</t>
   </si>
   <si>
-    <t>Kang Sang</t>
-  </si>
-  <si>
     <t>Sahil Khatri</t>
   </si>
   <si>
     <t>Marcus Chui</t>
   </si>
   <si>
-    <t>Justin Qiang</t>
-  </si>
-  <si>
     <t>Ziqi (George) Yang</t>
   </si>
   <si>
@@ -101,32 +92,83 @@
     <t>PinHan Wang</t>
   </si>
   <si>
-    <t>Samar Gill</t>
-  </si>
-  <si>
-    <t>Nam Nguyen</t>
-  </si>
-  <si>
-    <t>Olzhas</t>
-  </si>
-  <si>
     <t>John Lu</t>
   </si>
   <si>
-    <t>Yiyang Zhang</t>
-  </si>
-  <si>
     <t>Gordon Wu</t>
   </si>
   <si>
     <t>Anantaya Chatsrirung</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>yiyang zhang</t>
+  </si>
+  <si>
+    <t>Kang San</t>
+  </si>
+  <si>
+    <t>Zachary Ho</t>
+  </si>
+  <si>
+    <t>Leo Brooks</t>
+  </si>
+  <si>
+    <t>Sean Tan Yuheng</t>
+  </si>
+  <si>
+    <t>Youman Li</t>
+  </si>
+  <si>
+    <t>Zining Xu</t>
+  </si>
+  <si>
+    <t>Olzhas (Jesse)</t>
+  </si>
+  <si>
+    <t>Nam Nguyen </t>
+  </si>
+  <si>
+    <t>Jamal Le</t>
+  </si>
+  <si>
+    <t>Qitao</t>
+  </si>
+  <si>
+    <t>samar gill</t>
+  </si>
+  <si>
+    <t>Manan saddi</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Phan Minh Quan Nguyen</t>
+  </si>
+  <si>
+    <t>Sahil khatri</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>jethrohuangboy@gmail.com</t>
+  </si>
+  <si>
+    <t>Faez Qureshi </t>
+  </si>
+  <si>
+    <t>Inderpreet Singh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +185,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -193,11 +229,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,58 +580,58 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>193300</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>193300</v>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
+        <v>118500</v>
+      </c>
+      <c r="D2" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>258000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>138800</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>138800</v>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>76700</v>
+      </c>
+      <c r="D3" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>228800</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -603,144 +639,144 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>135200</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>135200</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>193300</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>193300</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>121700</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>121700</v>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>179900</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>118500</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>118500</v>
+      <c r="B6" s="3">
+        <v>1271189</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>149700</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>110100</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>110100</v>
+      <c r="C7" s="3">
+        <v>138800</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>138800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>94200</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>94200</v>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>135200</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>135200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -750,171 +786,171 @@
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>87400</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>87400</v>
+      <c r="C9" s="3">
+        <v>83600</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>126300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>83600</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>83600</v>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3">
+        <v>121700</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>121700</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>76700</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>76700</v>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>110100</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>110100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>61500</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>61500</v>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>94200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>94200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>52300</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>52300</v>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>87400</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>87400</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>49600</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>49600</v>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>81200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -922,173 +958,173 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>48100</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>48100</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>81000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>44300</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>44300</v>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>76000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>76000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>42800</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>42800</v>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>71000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>71000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>7600</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>7600</v>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>68200</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>7100</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>7100</v>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>61500</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>61500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>5900</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>5900</v>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>60800</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,149 +1132,537 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>52300</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>52300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="3">
+        <v>49600</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <v>48100</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44300</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
+        <v>42800</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3">
         <v>4900</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="D26" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>40900</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5900</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>5900</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
+      <c r="A59" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C23">
-    <sortCondition descending="1" ref="C2:C23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I36">
+    <sortCondition descending="1" ref="I2:I36"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11253809-50EF-9343-BE57-BE4ED09600CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B6C96-07DB-E24C-93E7-1176F46E688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Inderpreet Singh</t>
+  </si>
+  <si>
+    <t>Pragun Sikri</t>
+  </si>
+  <si>
+    <t>Andrew King</t>
   </si>
 </sst>
 </file>
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -232,8 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +544,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -581,28 +586,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
-        <v>118500</v>
+        <v>121700</v>
       </c>
       <c r="D2" s="3">
-        <v>139500</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
+        <v>179900</v>
+      </c>
+      <c r="E2" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
-        <v>258000</v>
+        <v>374600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -610,28 +609,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
-        <v>76700</v>
+        <v>118500</v>
       </c>
       <c r="D3" s="3">
-        <v>152100</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
+        <v>139500</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3">
-        <v>228800</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -639,28 +632,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>193300</v>
+        <v>76700</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
+        <v>152100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>193300</v>
+        <v>228800</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -668,28 +655,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>193300</v>
       </c>
       <c r="D5" s="3">
-        <v>179900</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>179900</v>
+        <v>193300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -705,18 +686,12 @@
       <c r="D6" s="3">
         <v>149700</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>149700</v>
       </c>
@@ -726,28 +701,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>138800</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
+      <c r="E7" s="3">
+        <v>144900</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>138800</v>
+        <v>144900</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -755,28 +724,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>135200</v>
+        <v>138800</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>135200</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -784,28 +747,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
-        <v>83600</v>
+        <v>135200</v>
       </c>
       <c r="D9" s="3">
-        <v>42700</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>126300</v>
+        <v>135200</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -813,28 +770,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
-        <v>121700</v>
+        <v>83600</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
+        <v>42700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>121700</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -842,28 +793,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3">
-        <v>110100</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
+      <c r="E11" s="3">
+        <v>122000</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>110100</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -871,57 +816,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3">
-        <v>94200</v>
+        <v>121700</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>94200</v>
+        <v>121700</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
+      <c r="B13" s="3">
+        <v>1267914</v>
       </c>
       <c r="C13" s="3">
-        <v>87400</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
+      <c r="E13" s="3">
+        <v>115400</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>87400</v>
+        <v>115400</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -929,28 +862,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>110100</v>
       </c>
       <c r="D14" s="3">
-        <v>81200</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>81200</v>
+        <v>110100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,28 +885,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>94200</v>
       </c>
       <c r="D15" s="3">
-        <v>81000</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>81000</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -987,28 +908,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>76000</v>
+        <v>87400</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>76000</v>
+        <v>87400</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1016,28 +931,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
+      <c r="E17" s="3">
+        <v>84700</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>71000</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1045,28 +954,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>68200</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
+        <v>81200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>68200</v>
+        <v>81200</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1074,28 +977,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
-        <v>61500</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
+        <v>81000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>61500</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1103,28 +1000,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="D20" s="3">
-        <v>60800</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>60800</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1132,28 +1023,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>52300</v>
+        <v>71000</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>52300</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1161,57 +1046,45 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3">
-        <v>49600</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
+        <v>68200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <v>49600</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
+      <c r="B23" s="3">
+        <v>1420672</v>
       </c>
       <c r="C23" s="3">
-        <v>48100</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
+      <c r="E23" s="3">
+        <v>67600</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>48100</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1219,28 +1092,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3">
-        <v>44300</v>
+        <v>61500</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <v>44300</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,28 +1115,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3">
-        <v>42800</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
+        <v>60800</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>42800</v>
+        <v>60800</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1277,28 +1138,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
-        <v>4900</v>
+        <v>52300</v>
       </c>
       <c r="D26" s="3">
-        <v>36000</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>40900</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,28 +1161,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>49600</v>
       </c>
       <c r="D27" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <v>10000</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,28 +1184,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3">
-        <v>5900</v>
+        <v>48100</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3">
-        <v>5900</v>
+        <v>48100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1364,36 +1207,30 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>44300</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>26</v>
+      <c r="B30" s="3">
+        <v>1453075</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1401,20 +1238,14 @@
       <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
+      <c r="E30" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1422,28 +1253,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>42800</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1451,28 +1276,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
+        <v>36000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>40900</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1480,7 +1299,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1488,20 +1307,14 @@
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
+      <c r="E33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1509,28 +1322,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1538,28 +1345,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1567,44 +1368,138 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -1661,8 +1556,8 @@
       <c r="A59" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I36">
-    <sortCondition descending="1" ref="I2:I36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I41">
+    <sortCondition descending="1" ref="I2:I41"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B6C96-07DB-E24C-93E7-1176F46E688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA2386-543D-8343-A543-9BA807E97511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="760" windowWidth="26320" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Justin</t>
-  </si>
-  <si>
-    <t>yiyang zhang</t>
   </si>
   <si>
     <t>Kang San</t>
@@ -541,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,9 +594,15 @@
       <c r="E2" s="3">
         <v>73000</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
       <c r="I2" s="3">
         <v>374600</v>
       </c>
@@ -609,22 +612,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>118500</v>
+        <v>76700</v>
       </c>
       <c r="D3" s="3">
-        <v>139500</v>
+        <v>152100</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
       <c r="I3" s="3">
-        <v>258000</v>
+        <v>228800</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -632,68 +641,86 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>76700</v>
+        <v>193300</v>
       </c>
       <c r="D4" s="3">
-        <v>152100</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
       <c r="I4" s="3">
-        <v>228800</v>
+        <v>193300</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="3">
+        <v>1271189</v>
       </c>
       <c r="C5" s="3">
-        <v>193300</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>149700</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
       <c r="I5" s="3">
-        <v>193300</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>1271189</v>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>149700</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+        <v>144900</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
       <c r="I6" s="3">
-        <v>149700</v>
+        <v>144900</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -701,22 +728,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>138800</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>144900</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
       <c r="I7" s="3">
-        <v>144900</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -724,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>138800</v>
+        <v>135200</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -735,11 +768,17 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
       <c r="I8" s="3">
-        <v>138800</v>
+        <v>135200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -747,22 +786,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
-        <v>135200</v>
+        <v>83600</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>42700</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
       <c r="I9" s="3">
-        <v>135200</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -770,22 +815,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3">
-        <v>83600</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>42700</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>122000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
       <c r="I10" s="3">
-        <v>126300</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -793,68 +844,86 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>121700</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>122000</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
       <c r="I11" s="3">
-        <v>122000</v>
+        <v>121700</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
+      <c r="B12" s="3">
+        <v>1267914</v>
       </c>
       <c r="C12" s="3">
-        <v>121700</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>115400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
       <c r="I12" s="3">
-        <v>121700</v>
+        <v>115400</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>1267914</v>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>110100</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>115400</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
       <c r="I13" s="3">
-        <v>115400</v>
+        <v>110100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -862,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
-        <v>110100</v>
+        <v>94200</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -873,11 +942,17 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
-        <v>110100</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -885,10 +960,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
-        <v>94200</v>
+        <v>87400</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -896,11 +971,17 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
       <c r="I15" s="3">
-        <v>94200</v>
+        <v>87400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -908,22 +989,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3">
-        <v>87400</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>84700</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
       <c r="I16" s="3">
-        <v>87400</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -931,22 +1018,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>81200</v>
       </c>
       <c r="E17" s="3">
-        <v>84700</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
       <c r="I17" s="3">
-        <v>84700</v>
+        <v>81200</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -954,22 +1047,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>81200</v>
+        <v>81000</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
       <c r="I18" s="3">
-        <v>81200</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -977,22 +1076,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="D19" s="3">
-        <v>81000</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
       <c r="I19" s="3">
-        <v>81000</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1000,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3">
-        <v>76000</v>
+        <v>71000</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -1011,11 +1116,17 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
       <c r="I20" s="3">
-        <v>76000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1023,68 +1134,86 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3">
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>68200</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
       <c r="I21" s="3">
-        <v>71000</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
+      <c r="B22" s="3">
+        <v>1420672</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>68200</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>67600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
       <c r="I22" s="3">
-        <v>68200</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>1420672</v>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>67600</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
       <c r="I23" s="3">
-        <v>67600</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1092,22 +1221,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3">
-        <v>61500</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>60800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3">
-        <v>61500</v>
+        <v>60800</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1115,22 +1250,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>52300</v>
       </c>
       <c r="D25" s="3">
-        <v>60800</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
       <c r="I25" s="3">
-        <v>60800</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1138,10 +1279,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
-        <v>52300</v>
+        <v>49600</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -1149,11 +1290,17 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
       <c r="I26" s="3">
-        <v>52300</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1161,10 +1308,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -1172,11 +1319,17 @@
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
       <c r="I27" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1184,10 +1337,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3">
-        <v>48100</v>
+        <v>44300</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1195,57 +1348,75 @@
       <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
       <c r="I28" s="3">
-        <v>48100</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
+      <c r="B29" s="3">
+        <v>1453075</v>
       </c>
       <c r="C29" s="3">
-        <v>44300</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+        <v>43200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
       <c r="I29" s="3">
-        <v>44300</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>1453075</v>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>42800</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>43200</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
       <c r="I30" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1253,22 +1424,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
-        <v>42800</v>
+        <v>4900</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
       <c r="I31" s="3">
-        <v>42800</v>
+        <v>40900</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1276,22 +1453,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+        <v>15000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
       <c r="I32" s="3">
-        <v>40900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1299,22 +1482,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E33" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
       <c r="I33" s="3">
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1322,22 +1511,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="D34" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
       <c r="I34" s="3">
-        <v>10000</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1345,10 +1540,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -1356,11 +1551,17 @@
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
       <c r="I35" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1368,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -1379,9 +1580,15 @@
       <c r="E36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
@@ -1391,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1402,9 +1609,15 @@
       <c r="E37" s="3">
         <v>0</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
@@ -1425,9 +1638,15 @@
       <c r="E38" s="3">
         <v>0</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
@@ -1437,7 +1656,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -1448,9 +1667,15 @@
       <c r="E39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
@@ -1460,7 +1685,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -1471,35 +1696,21 @@
       <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
       <c r="I40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -1552,12 +1763,9 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I41">
-    <sortCondition descending="1" ref="I2:I41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I40">
+    <sortCondition descending="1" ref="I2:I40"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA2386-543D-8343-A543-9BA807E97511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E3A649-D040-C64A-8400-2C6EFD1CCF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="26320" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Marcus Chui</t>
-  </si>
-  <si>
-    <t>Ziqi (George) Yang</t>
   </si>
   <si>
     <t>Damyan Ang</t>
@@ -541,7 +538,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,12 +594,8 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>374600</v>
       </c>
@@ -612,28 +605,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
-        <v>76700</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>152100</v>
+        <v>81000</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
+        <v>269600</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3">
-        <v>228800</v>
+        <v>350600</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -641,13 +630,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>193300</v>
+        <v>76700</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>152100</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -655,28 +644,24 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>193300</v>
+        <v>228800</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>1271189</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>193300</v>
       </c>
       <c r="D5" s="3">
-        <v>149700</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -684,14 +669,10 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>149700</v>
+        <v>193300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -699,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -711,16 +692,12 @@
         <v>144900</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
+        <v>39900</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>144900</v>
+        <v>184800</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -728,42 +705,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
-        <v>138800</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>81200</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
+        <v>73300</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>138800</v>
+        <v>154500</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
+      <c r="B8" s="3">
+        <v>1271189</v>
       </c>
       <c r="C8" s="3">
-        <v>135200</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>149700</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -771,14 +744,10 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>135200</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -786,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>83600</v>
+        <v>138800</v>
       </c>
       <c r="D9" s="3">
-        <v>42700</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -800,14 +769,10 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>126300</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -815,28 +780,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>135200</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>122000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>122000</v>
+        <v>135200</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -844,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>121700</v>
+        <v>83600</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>42700</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -858,22 +819,18 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>121700</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>1267914</v>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -882,48 +839,40 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>115400</v>
+        <v>122000</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>115400</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="3">
+        <v>1267914</v>
       </c>
       <c r="C13" s="3">
-        <v>110100</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>115400</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>110100</v>
+        <v>115400</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -931,10 +880,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>94200</v>
+        <v>110100</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -945,43 +894,31 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>94200</v>
+        <v>110100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3">
-        <v>87400</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
+      <c r="B15" s="3">
+        <v>1567311</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>98500</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>87400</v>
+        <v>98500</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -989,57 +926,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>94200</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>84700</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>84700</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
+      <c r="B17" s="3">
+        <v>1453075</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>81200</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>43200</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
+        <v>42800</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>81200</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1047,28 +976,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>81000</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>84700</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>81000</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1090,12 +1015,8 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3">
         <v>76000</v>
       </c>
@@ -1119,12 +1040,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3">
         <v>71000</v>
       </c>
@@ -1134,7 +1051,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1148,12 +1065,8 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3">
         <v>68200</v>
       </c>
@@ -1177,12 +1090,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>67600</v>
       </c>
@@ -1192,28 +1101,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3">
-        <v>61500</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>60800</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>61500</v>
+        <v>65800</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1221,13 +1126,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="D24" s="3">
-        <v>60800</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1235,14 +1140,10 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <v>60800</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1250,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
         <v>52300</v>
@@ -1264,12 +1165,8 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
         <v>52300</v>
       </c>
@@ -1279,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>49600</v>
@@ -1293,12 +1190,8 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3">
         <v>49600</v>
       </c>
@@ -1308,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3">
         <v>48100</v>
@@ -1322,12 +1215,8 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3">
         <v>48100</v>
       </c>
@@ -1337,7 +1226,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3">
         <v>44300</v>
@@ -1351,12 +1240,8 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3">
         <v>44300</v>
       </c>
@@ -1365,29 +1250,25 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>1453075</v>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>42800</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1395,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3">
-        <v>42800</v>
+        <v>4900</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -1409,14 +1290,10 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>42800</v>
+        <v>40900</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1424,28 +1301,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>40900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1453,28 +1326,24 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E32" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1482,13 +1351,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="D33" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1496,14 +1365,10 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <v>10000</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1511,10 +1376,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -1525,14 +1390,10 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1540,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -1554,12 +1415,8 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1569,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -1583,12 +1440,8 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3">
         <v>0</v>
       </c>
@@ -1612,12 +1465,8 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3">
         <v>0</v>
       </c>
@@ -1627,7 +1476,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -1641,12 +1490,8 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3">
         <v>0</v>
       </c>
@@ -1656,7 +1501,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -1670,12 +1515,8 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3">
         <v>0</v>
       </c>
@@ -1685,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -1699,12 +1540,8 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3">
         <v>0</v>
       </c>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E3A649-D040-C64A-8400-2C6EFD1CCF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4C00C-325C-A94D-AC09-B2F51286F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="26320" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Andrew King</t>
+  </si>
+  <si>
+    <t>Lawrence Hider </t>
+  </si>
+  <si>
+    <t>Ameya Mahesh </t>
+  </si>
+  <si>
+    <t>Raghav</t>
+  </si>
+  <si>
+    <t>Tien Tran</t>
   </si>
 </sst>
 </file>
@@ -538,7 +550,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +606,9 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>374600</v>
@@ -619,7 +633,9 @@
       <c r="F3" s="3">
         <v>269600</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>350600</v>
@@ -630,24 +646,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
-        <v>76700</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>152100</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>238000</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>228800</v>
+        <v>289000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -655,24 +673,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3">
-        <v>193300</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>91500</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>157500</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>193300</v>
+        <v>249000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -680,24 +700,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>81200</v>
       </c>
       <c r="E6" s="3">
-        <v>144900</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>39900</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>73300</v>
+      </c>
+      <c r="G6" s="3">
+        <v>80000</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>184800</v>
+        <v>234500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -705,49 +727,53 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>76700</v>
       </c>
       <c r="D7" s="3">
-        <v>81200</v>
+        <v>152100</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>73300</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>154500</v>
+        <v>228800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>1271189</v>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>138800</v>
       </c>
       <c r="D8" s="3">
-        <v>149700</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>82000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>149700</v>
+        <v>220800</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -755,24 +781,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
-        <v>138800</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>152000</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>21500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45800</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>138800</v>
+        <v>219300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -780,10 +808,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
-        <v>135200</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -794,10 +822,12 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>195000</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>135200</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -805,13 +835,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>83600</v>
+        <v>193300</v>
       </c>
       <c r="D11" s="3">
-        <v>42700</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -819,10 +849,12 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>126300</v>
+        <v>193300</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -830,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -839,54 +871,58 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>122000</v>
+        <v>144900</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>39900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>122000</v>
+        <v>184800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>1267914</v>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>94200</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>115400</v>
+        <v>43200</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>42800</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>115400</v>
+        <v>180200</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
+      <c r="B14" s="3">
+        <v>1271189</v>
       </c>
       <c r="C14" s="3">
-        <v>110100</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>149700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -894,31 +930,39 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>110100</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>1567311</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>135200</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
       <c r="E15" s="3">
-        <v>98500</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>98500</v>
+        <v>135200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -926,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
-        <v>94200</v>
+        <v>83600</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>42700</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -940,18 +984,20 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>94200</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>1453075</v>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -960,23 +1006,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>43200</v>
+        <v>122000</v>
       </c>
       <c r="F17" s="3">
-        <v>42800</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>86000</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
+      <c r="B18" s="3">
+        <v>1267914</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -985,15 +1033,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>84700</v>
+        <v>115400</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>84700</v>
+        <v>115400</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1001,10 +1051,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3">
-        <v>76000</v>
+        <v>110100</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -1015,35 +1065,39 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>76000</v>
+        <v>110100</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
+      <c r="B20" s="3">
+        <v>1567311</v>
       </c>
       <c r="C20" s="3">
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>98500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>71000</v>
+        <v>98500</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1051,49 +1105,53 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>68200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>84700</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>68200</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>1420672</v>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>67600</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <v>67600</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1101,24 +1159,26 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="D23" s="3">
-        <v>60800</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>65800</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1126,13 +1186,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3">
-        <v>61500</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>68200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1140,35 +1200,39 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <v>61500</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
+      <c r="B25" s="3">
+        <v>1420672</v>
       </c>
       <c r="C25" s="3">
-        <v>52300</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>67600</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>52300</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1176,24 +1240,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>49600</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>60800</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>49600</v>
+        <v>65800</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1201,10 +1267,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3">
-        <v>48100</v>
+        <v>61500</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -1215,10 +1281,12 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <v>48100</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1226,10 +1294,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3">
-        <v>44300</v>
+        <v>52300</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1240,10 +1308,12 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3">
-        <v>44300</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1251,10 +1321,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3">
-        <v>42800</v>
+        <v>49600</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1265,10 +1335,12 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>42800</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1276,13 +1348,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3">
-        <v>4900</v>
+        <v>48100</v>
       </c>
       <c r="D30" s="3">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -1290,10 +1362,12 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>40900</v>
+        <v>48100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1301,24 +1375,26 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>44300</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>15000</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1326,13 +1402,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>42800</v>
       </c>
       <c r="D32" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1340,10 +1416,12 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <v>10000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1351,13 +1429,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3">
-        <v>5900</v>
+        <v>4900</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1365,10 +1443,12 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <v>5900</v>
+        <v>40900</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1376,7 +1456,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -1385,15 +1465,17 @@
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1401,13 +1483,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1415,10 +1497,12 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1426,10 +1510,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -1440,10 +1524,12 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1451,7 +1537,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1465,7 +1551,9 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
         <v>0</v>
@@ -1476,7 +1564,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -1490,7 +1578,9 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
         <v>0</v>
@@ -1501,7 +1591,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -1515,7 +1605,9 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3">
         <v>0</v>
@@ -1526,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -1540,23 +1632,121 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1453075</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
@@ -1601,8 +1791,8 @@
       <c r="A58" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I40">
-    <sortCondition descending="1" ref="I2:I40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I44">
+    <sortCondition descending="1" ref="I2:I44"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4C00C-325C-A94D-AC09-B2F51286F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F0646-9D9F-0444-9A03-59EC556BCC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="26320" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,9 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
       <c r="I2" s="3">
         <v>374600</v>
       </c>
@@ -636,7 +638,9 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
       <c r="I3" s="3">
         <v>350600</v>
       </c>
@@ -646,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -655,17 +659,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>51000</v>
+        <v>91500</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>157500</v>
       </c>
       <c r="G4" s="3">
-        <v>238000</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>65800</v>
+      </c>
       <c r="I4" s="3">
-        <v>289000</v>
+        <v>314800</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -673,26 +679,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>193300</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="E5" s="3">
-        <v>91500</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>157500</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
       <c r="I5" s="3">
-        <v>249000</v>
+        <v>313300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -700,26 +708,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>94200</v>
       </c>
       <c r="D6" s="3">
-        <v>81200</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>43200</v>
       </c>
       <c r="F6" s="3">
-        <v>73300</v>
+        <v>42800</v>
       </c>
       <c r="G6" s="3">
-        <v>80000</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>173100</v>
+      </c>
       <c r="I6" s="3">
-        <v>234500</v>
+        <v>310500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -744,9 +754,11 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>81400</v>
+      </c>
       <c r="I7" s="3">
-        <v>228800</v>
+        <v>310200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -754,26 +766,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3">
-        <v>138800</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="F8" s="3">
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>238000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
       <c r="I8" s="3">
-        <v>220800</v>
+        <v>289000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -798,9 +812,11 @@
       <c r="G9" s="3">
         <v>45800</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>73700</v>
+      </c>
       <c r="I9" s="3">
-        <v>219300</v>
+        <v>271500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -817,17 +833,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>144900</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>39900</v>
       </c>
       <c r="G10" s="3">
-        <v>195000</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>81900</v>
+      </c>
       <c r="I10" s="3">
-        <v>195000</v>
+        <v>266700</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -835,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
-        <v>193300</v>
+        <v>138800</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -847,22 +865,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
       <c r="I11" s="3">
-        <v>193300</v>
+        <v>220800</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
+      <c r="B12" s="3">
+        <v>1267914</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -871,17 +891,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>144900</v>
+        <v>115400</v>
       </c>
       <c r="F12" s="3">
-        <v>39900</v>
+        <v>95000</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
       <c r="I12" s="3">
-        <v>184800</v>
+        <v>210400</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -889,40 +911,42 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
-        <v>94200</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>81200</v>
       </c>
       <c r="E13" s="3">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>42800</v>
+        <v>73300</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>50000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
       <c r="I13" s="3">
-        <v>180200</v>
+        <v>204500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>1271189</v>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>149700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -931,25 +955,27 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>195000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
-        <v>149700</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
+      <c r="B15" s="3">
+        <v>1271189</v>
       </c>
       <c r="C15" s="3">
-        <v>135200</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>149700</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -960,9 +986,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
       <c r="I15" s="3">
-        <v>135200</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -970,13 +998,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>83600</v>
+        <v>135200</v>
       </c>
       <c r="D16" s="3">
-        <v>42700</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -987,9 +1015,11 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
       <c r="I16" s="3">
-        <v>126300</v>
+        <v>135200</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -997,16 +1027,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>42700</v>
       </c>
       <c r="E17" s="3">
-        <v>122000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1014,17 +1044,19 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
       <c r="I17" s="3">
-        <v>122000</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>1267914</v>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1033,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>115400</v>
+        <v>122000</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1041,9 +1073,11 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
       <c r="I18" s="3">
-        <v>115400</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1068,7 +1102,9 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
       <c r="I19" s="3">
         <v>110100</v>
       </c>
@@ -1095,7 +1131,9 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
       <c r="I20" s="3">
         <v>98500</v>
       </c>
@@ -1122,7 +1160,9 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
       <c r="I21" s="3">
         <v>84700</v>
       </c>
@@ -1149,7 +1189,9 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
       <c r="I22" s="3">
         <v>76000</v>
       </c>
@@ -1158,17 +1200,17 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
+      <c r="B23" s="3">
+        <v>1420672</v>
       </c>
       <c r="C23" s="3">
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>67600</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1176,9 +1218,11 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
       <c r="I23" s="3">
-        <v>71000</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1186,43 +1230,45 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>68200</v>
+        <v>60800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3">
-        <v>68200</v>
+        <v>65800</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>1420672</v>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>67600</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1230,9 +1276,11 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
       <c r="I25" s="3">
-        <v>67600</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1240,26 +1288,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>52300</v>
       </c>
       <c r="D26" s="3">
-        <v>60800</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
       <c r="I26" s="3">
-        <v>65800</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1267,10 +1317,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3">
-        <v>61500</v>
+        <v>49600</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -1284,9 +1334,11 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
       <c r="I27" s="3">
-        <v>61500</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1294,10 +1346,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3">
-        <v>52300</v>
+        <v>48100</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1311,9 +1363,11 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
       <c r="I28" s="3">
-        <v>52300</v>
+        <v>48100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1321,10 +1375,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3">
-        <v>49600</v>
+        <v>44300</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1338,9 +1392,11 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
       <c r="I29" s="3">
-        <v>49600</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1348,10 +1404,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3">
-        <v>48100</v>
+        <v>42800</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -1365,9 +1421,11 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
       <c r="I30" s="3">
-        <v>48100</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1375,10 +1433,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>44300</v>
+        <v>41000</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -1392,9 +1450,11 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
       <c r="I31" s="3">
-        <v>44300</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1402,13 +1462,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3">
-        <v>42800</v>
+        <v>4900</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1419,9 +1479,11 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
       <c r="I32" s="3">
-        <v>42800</v>
+        <v>40900</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1429,13 +1491,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3">
-        <v>36000</v>
+        <v>34500</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1446,9 +1508,11 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
       <c r="I33" s="3">
-        <v>40900</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1473,7 +1537,9 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
       <c r="I34" s="3">
         <v>15000</v>
       </c>
@@ -1500,7 +1566,9 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
       <c r="I35" s="3">
         <v>10000</v>
       </c>
@@ -1527,7 +1595,9 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
       <c r="I36" s="3">
         <v>5900</v>
       </c>
@@ -1537,7 +1607,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1554,7 +1624,9 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
@@ -1564,11 +1636,9 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3">
         <v>0</v>
       </c>
@@ -1581,7 +1651,9 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
@@ -1591,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -1608,7 +1680,9 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
@@ -1617,8 +1691,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>31</v>
+      <c r="B40" s="3">
+        <v>1453075</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -1635,7 +1709,9 @@
       <c r="G40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
       <c r="I40" s="3">
         <v>0</v>
       </c>
@@ -1645,7 +1721,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -1662,7 +1738,9 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1672,7 +1750,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -1689,7 +1767,9 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
@@ -1716,7 +1796,9 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -1725,8 +1807,8 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
-        <v>1453075</v>
+      <c r="B44" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -1743,7 +1825,9 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26454E54-3A9D-7749-B184-EF77A84F0B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD4E804-0FD9-3E46-91AD-8AFEE8E6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="26320" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -113,20 +113,38 @@
     <t>Vincent</t>
   </si>
   <si>
-    <t>Jeremy larsen</t>
-  </si>
-  <si>
     <t>Sean</t>
   </si>
   <si>
     <t>Kainaat</t>
+  </si>
+  <si>
+    <t>Pragun Sikri</t>
+  </si>
+  <si>
+    <t>Pramath </t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Ren jie</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Prakrit Dayal</t>
+  </si>
+  <si>
+    <t>Jin XIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +161,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -188,13 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +511,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,13 +553,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3">
-        <v>136600</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>259000</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -564,7 +575,7 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(C2:H2)</f>
-        <v>136600</v>
+        <v>259000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -572,10 +583,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3">
-        <v>106200</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>136600</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -594,7 +605,7 @@
       </c>
       <c r="I3" s="2">
         <f>SUM(C3:H3)</f>
-        <v>106200</v>
+        <v>136600</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -602,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>75400</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>106200</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -624,7 +635,7 @@
       </c>
       <c r="I4" s="2">
         <f>SUM(C4:H4)</f>
-        <v>75400</v>
+        <v>106200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -632,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>72300</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>75400</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -654,7 +665,7 @@
       </c>
       <c r="I5" s="2">
         <f>SUM(C5:H5)</f>
-        <v>72300</v>
+        <v>75400</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -662,10 +673,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3">
-        <v>71600</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>72300</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -684,7 +695,7 @@
       </c>
       <c r="I6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>71600</v>
+        <v>72300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -692,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45300</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -714,7 +725,7 @@
       </c>
       <c r="I7" s="2">
         <f>SUM(C7:H7)</f>
-        <v>45300</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -722,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44500</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45300</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -744,7 +755,7 @@
       </c>
       <c r="I8" s="2">
         <f>SUM(C8:H8)</f>
-        <v>44500</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -752,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3">
-        <v>39000</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44500</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -774,7 +785,7 @@
       </c>
       <c r="I9" s="2">
         <f>SUM(C9:H9)</f>
-        <v>39000</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -782,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>16900</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>39000</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -804,7 +815,7 @@
       </c>
       <c r="I10" s="2">
         <f>SUM(C10:H10)</f>
-        <v>16900</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -812,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -834,7 +845,7 @@
       </c>
       <c r="I11" s="2">
         <f>SUM(C11:H11)</f>
-        <v>0</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -842,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -872,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -902,7 +913,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -932,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -962,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -992,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1022,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1052,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1082,7 +1093,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1108,92 +1119,244 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f>SUM(C21:H21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f>SUM(C22:H22)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f>SUM(C23:H23)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f>SUM(C24:H24)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f>SUM(C25:H25)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f>SUM(C26:H26)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <f>SUM(C27:H27)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f>SUM(C28:H28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -2340,8 +2503,8 @@
       <c r="I132" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I133">
-    <sortCondition descending="1" ref="I2:I133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I28">
+    <sortCondition descending="1" ref="I2:I28"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD4E804-0FD9-3E46-91AD-8AFEE8E6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAFEC20-6473-8746-A8BD-E1F52E4C3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="26320" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,12 +200,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +512,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,16 +584,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>136600</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
+        <v>45900</v>
+      </c>
+      <c r="E3" s="3">
+        <v>190300</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -605,7 +606,7 @@
       </c>
       <c r="I3" s="2">
         <f>SUM(C3:H3)</f>
-        <v>136600</v>
+        <v>236200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -613,10 +614,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>106200</v>
+        <v>136600</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -635,7 +636,7 @@
       </c>
       <c r="I4" s="2">
         <f>SUM(C4:H4)</f>
-        <v>106200</v>
+        <v>136600</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -643,16 +644,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>75400</v>
+        <v>44500</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>64700</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -665,7 +666,7 @@
       </c>
       <c r="I5" s="2">
         <f>SUM(C5:H5)</f>
-        <v>75400</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -673,10 +674,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>72300</v>
+        <v>106200</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -695,7 +696,7 @@
       </c>
       <c r="I6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>72300</v>
+        <v>106200</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -703,13 +704,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="D7" s="2">
-        <v>45900</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -725,7 +726,7 @@
       </c>
       <c r="I7" s="2">
         <f>SUM(C7:H7)</f>
-        <v>45900</v>
+        <v>75400</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -733,10 +734,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>45300</v>
+        <v>72300</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -755,7 +756,7 @@
       </c>
       <c r="I8" s="2">
         <f>SUM(C8:H8)</f>
-        <v>45300</v>
+        <v>72300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -763,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>44500</v>
+        <v>45300</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -785,7 +786,7 @@
       </c>
       <c r="I9" s="2">
         <f>SUM(C9:H9)</f>
-        <v>44500</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAFEC20-6473-8746-A8BD-E1F52E4C3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA62BC6-D7F2-E846-ADD1-DEA0AE3C9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="760" windowWidth="26320" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-2140" windowWidth="21600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Neev Bhandari</t>
-  </si>
-  <si>
-    <t>Liyao Ren</t>
   </si>
   <si>
     <t>Timur Kapasi</t>
@@ -512,7 +509,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -584,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -614,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>136600</v>
@@ -644,16 +641,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>44500</v>
+        <v>106200</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>64700</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -666,7 +663,7 @@
       </c>
       <c r="I5" s="2">
         <f>SUM(C5:H5)</f>
-        <v>109200</v>
+        <v>106200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -674,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>106200</v>
+        <v>75400</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -696,7 +693,7 @@
       </c>
       <c r="I6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>106200</v>
+        <v>75400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -707,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>75400</v>
+        <v>72300</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -726,7 +723,7 @@
       </c>
       <c r="I7" s="2">
         <f>SUM(C7:H7)</f>
-        <v>75400</v>
+        <v>72300</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -737,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>72300</v>
+        <v>45300</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -756,7 +753,7 @@
       </c>
       <c r="I8" s="2">
         <f>SUM(C8:H8)</f>
-        <v>72300</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -764,10 +761,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
-        <v>45300</v>
+        <v>39000</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -786,7 +783,7 @@
       </c>
       <c r="I9" s="2">
         <f>SUM(C9:H9)</f>
-        <v>45300</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -794,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>39000</v>
+        <v>16900</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -816,7 +813,7 @@
       </c>
       <c r="I10" s="2">
         <f>SUM(C10:H10)</f>
-        <v>39000</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -824,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -846,7 +843,7 @@
       </c>
       <c r="I11" s="2">
         <f>SUM(C11:H11)</f>
-        <v>16900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -854,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -884,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -914,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1004,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1034,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1064,7 +1061,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1124,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1184,7 +1181,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1214,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1244,7 +1241,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1274,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1304,7 +1301,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1330,34 +1327,15 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <f>SUM(C28:H28)</f>
-        <v>0</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -2504,8 +2482,8 @@
       <c r="I132" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I28">
-    <sortCondition descending="1" ref="I2:I28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I27">
+    <sortCondition descending="1" ref="I2:I27"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA62BC6-D7F2-E846-ADD1-DEA0AE3C9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CC8627-9EFF-064E-A805-65D33CC7A5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-2140" windowWidth="21600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Kainaat</t>
   </si>
   <si>
-    <t>Pragun Sikri</t>
-  </si>
-  <si>
     <t>Pramath </t>
   </si>
   <si>
@@ -135,13 +132,22 @@
   </si>
   <si>
     <t>Jin XIE</t>
+  </si>
+  <si>
+    <t>Phan Minh Quan Nguyen</t>
+  </si>
+  <si>
+    <t>Dharitri Kapoor </t>
+  </si>
+  <si>
+    <t>Rahul Mittal </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +164,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -197,13 +209,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +522,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,14 +563,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
+      <c r="B2" s="4">
+        <v>1473267</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>259000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -565,15 +578,15 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
+      <c r="G2" s="4">
+        <v>433000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>384000</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(C2:H2)</f>
-        <v>259000</v>
+        <v>817000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -581,29 +594,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="D3" s="2">
-        <v>45900</v>
-      </c>
-      <c r="E3" s="3">
-        <v>190300</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>109500</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>50600</v>
       </c>
       <c r="I3" s="2">
         <f>SUM(C3:H3)</f>
-        <v>236200</v>
+        <v>266300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -611,13 +624,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>136600</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>259000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -633,7 +646,7 @@
       </c>
       <c r="I4" s="2">
         <f>SUM(C4:H4)</f>
-        <v>136600</v>
+        <v>259000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -641,16 +654,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
+        <v>45900</v>
+      </c>
+      <c r="E5" s="3">
+        <v>190300</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -663,7 +676,7 @@
       </c>
       <c r="I5" s="2">
         <f>SUM(C5:H5)</f>
-        <v>106200</v>
+        <v>236200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -671,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>75400</v>
+        <v>136600</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -693,7 +706,7 @@
       </c>
       <c r="I6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>75400</v>
+        <v>136600</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -701,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>72300</v>
+        <v>39000</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -716,25 +729,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>92800</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <f>SUM(C7:H7)</f>
-        <v>72300</v>
+        <v>131800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
+      <c r="B8" s="4">
+        <v>1376291</v>
       </c>
       <c r="C8" s="2">
-        <v>45300</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -745,32 +758,32 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
+      <c r="G8" s="4">
+        <v>99000</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
         <f>SUM(C8:H8)</f>
-        <v>45300</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
+      <c r="B9" s="4">
+        <v>1346686</v>
       </c>
       <c r="C9" s="2">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
+      <c r="E9" s="4">
+        <v>79400</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -783,7 +796,7 @@
       </c>
       <c r="I9" s="2">
         <f>SUM(C9:H9)</f>
-        <v>39000</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -791,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>16900</v>
+        <v>75400</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -813,7 +826,7 @@
       </c>
       <c r="I10" s="2">
         <f>SUM(C10:H10)</f>
-        <v>16900</v>
+        <v>75400</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -821,10 +834,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>72300</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -843,15 +856,15 @@
       </c>
       <c r="I11" s="2">
         <f>SUM(C11:H11)</f>
-        <v>0</v>
+        <v>72300</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -866,14 +879,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>59000</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f>SUM(C12:H12)</f>
-        <v>0</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -881,10 +894,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>58600</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -903,7 +916,7 @@
       </c>
       <c r="I13" s="2">
         <f>SUM(C13:H13)</f>
-        <v>0</v>
+        <v>58600</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -911,10 +924,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>45300</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -933,15 +946,15 @@
       </c>
       <c r="I14" s="2">
         <f>SUM(C14:H14)</f>
-        <v>0</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -955,15 +968,15 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
+      <c r="G15" s="4">
+        <v>28000</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2">
         <f>SUM(C15:H15)</f>
-        <v>0</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -971,10 +984,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -993,7 +1006,7 @@
       </c>
       <c r="I16" s="2">
         <f>SUM(C16:H16)</f>
-        <v>0</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1001,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1031,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1061,7 +1074,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1091,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1121,7 +1134,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1151,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1181,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1211,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1241,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1271,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1301,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1328,47 +1341,115 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f>SUM(C28:H28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <f>SUM(C29:H29)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <f>SUM(C30:H30)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f>SUM(C31:H31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -2482,8 +2563,8 @@
       <c r="I132" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I27">
-    <sortCondition descending="1" ref="I2:I27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I31">
+    <sortCondition descending="1" ref="I2:I31"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CC8627-9EFF-064E-A805-65D33CC7A5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E72F36D-22A0-43F8-ACC6-741EFAAEE965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -65,82 +65,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Neev Bhandari</t>
-  </si>
-  <si>
-    <t>Timur Kapasi</t>
-  </si>
-  <si>
-    <t>Xuanhan Li</t>
-  </si>
-  <si>
-    <t>Dhivyan Sureshkumar</t>
-  </si>
-  <si>
-    <t>Ivan Melwin</t>
-  </si>
-  <si>
-    <t>Sothean Lay</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>yonah</t>
-  </si>
-  <si>
-    <t>Finn Hremiako</t>
-  </si>
-  <si>
-    <t>Bibidh </t>
-  </si>
-  <si>
-    <t>Chiyutsau </t>
-  </si>
-  <si>
-    <t>Edward Louis Gomulia</t>
-  </si>
-  <si>
-    <t>Carsyn Chan</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Kainaat</t>
-  </si>
-  <si>
-    <t>Pramath </t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Ren jie</t>
-  </si>
-  <si>
-    <t>Hansen</t>
-  </si>
-  <si>
-    <t>Prakrit Dayal</t>
-  </si>
-  <si>
-    <t>Jin XIE</t>
-  </si>
-  <si>
-    <t>Phan Minh Quan Nguyen</t>
-  </si>
-  <si>
-    <t>Dharitri Kapoor </t>
-  </si>
-  <si>
-    <t>Rahul Mittal </t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -522,15 +447,15 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,12 +484,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>1473267</v>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -579,879 +504,336 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>433000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>384000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(C2:H2)</f>
-        <v>817000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>106200</v>
-      </c>
-      <c r="D3" s="2">
+        <f t="shared" ref="I2:I31" si="0">SUM(C2:H2)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>109500</v>
-      </c>
-      <c r="H3" s="2">
-        <v>50600</v>
-      </c>
-      <c r="I3" s="2">
-        <f>SUM(C3:H3)</f>
-        <v>266300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>259000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <f>SUM(C4:H4)</f>
-        <v>259000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45900</v>
-      </c>
-      <c r="E5" s="3">
-        <v>190300</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f>SUM(C5:H5)</f>
-        <v>236200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>136600</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <f>SUM(C6:H6)</f>
-        <v>136600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>39000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>92800</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <f>SUM(C7:H7)</f>
-        <v>131800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1376291</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>99000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <f>SUM(C8:H8)</f>
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1346686</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>79400</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <f>SUM(C9:H9)</f>
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>75400</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f>SUM(C10:H10)</f>
-        <v>75400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>72300</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f>SUM(C11:H11)</f>
-        <v>72300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>59000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f>SUM(C12:H12)</f>
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>58600</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <f>SUM(C13:H13)</f>
-        <v>58600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45300</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <f>SUM(C14:H14)</f>
-        <v>45300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>28000</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <f>SUM(C15:H15)</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16900</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <f>SUM(C16:H16)</f>
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <f>SUM(C17:H17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <f>SUM(C18:H18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <f>SUM(C19:H19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <f>SUM(C20:H20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <f>SUM(C21:H21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <f>SUM(C22:H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <f>SUM(C23:H23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <f>SUM(C24:H24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <f>SUM(C25:H25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <f>SUM(C26:H26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <f>SUM(C27:H27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <f>SUM(C28:H28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <f>SUM(C29:H29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <f>SUM(C30:H30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <f>SUM(C31:H31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1462,7 +844,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1473,7 +855,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1484,7 +866,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1495,7 +877,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1506,7 +888,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1517,7 +899,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1528,7 +910,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1539,7 +921,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1550,7 +932,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1561,7 +943,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1572,7 +954,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1583,7 +965,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1594,7 +976,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1605,7 +987,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1616,7 +998,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1627,7 +1009,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1638,7 +1020,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1649,7 +1031,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1660,7 +1042,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1671,7 +1053,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1682,7 +1064,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1693,7 +1075,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1704,7 +1086,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1715,7 +1097,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1726,7 +1108,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1737,7 +1119,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1748,7 +1130,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1759,7 +1141,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1770,7 +1152,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1781,7 +1163,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1792,7 +1174,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1803,7 +1185,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1814,7 +1196,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1825,7 +1207,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1836,7 +1218,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1847,7 +1229,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1858,7 +1240,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1869,7 +1251,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1880,7 +1262,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1891,7 +1273,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1902,7 +1284,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1913,7 +1295,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1924,7 +1306,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1935,7 +1317,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1946,7 +1328,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1957,7 +1339,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1968,7 +1350,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1979,7 +1361,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1990,7 +1372,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2001,7 +1383,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2012,7 +1394,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2023,7 +1405,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2034,7 +1416,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2045,7 +1427,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2056,7 +1438,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2067,7 +1449,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2078,7 +1460,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2089,7 +1471,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2100,7 +1482,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2111,7 +1493,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2122,7 +1504,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2133,7 +1515,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2144,7 +1526,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2155,7 +1537,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2166,7 +1548,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2177,7 +1559,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2188,7 +1570,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2199,7 +1581,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2210,7 +1592,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2221,7 +1603,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2232,7 +1614,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2243,7 +1625,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2254,7 +1636,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2265,7 +1647,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2276,7 +1658,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2287,7 +1669,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2298,7 +1680,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2309,7 +1691,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2320,7 +1702,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2331,7 +1713,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2342,7 +1724,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2353,7 +1735,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2364,7 +1746,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2375,7 +1757,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2386,7 +1768,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2397,7 +1779,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2408,7 +1790,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2419,7 +1801,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2430,7 +1812,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2441,7 +1823,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2452,7 +1834,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2463,7 +1845,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2474,7 +1856,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2485,7 +1867,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2496,7 +1878,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2507,7 +1889,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2518,7 +1900,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2529,7 +1911,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2540,7 +1922,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2551,7 +1933,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E72F36D-22A0-43F8-ACC6-741EFAAEE965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA62BC6-D7F2-E846-ADD1-DEA0AE3C9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-2140" windowWidth="21600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -65,14 +65,83 @@
     <t>Total</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Neev Bhandari</t>
+  </si>
+  <si>
+    <t>Timur Kapasi</t>
+  </si>
+  <si>
+    <t>Xuanhan Li</t>
+  </si>
+  <si>
+    <t>Dhivyan Sureshkumar</t>
+  </si>
+  <si>
+    <t>Ivan Melwin</t>
+  </si>
+  <si>
+    <t>Sothean Lay</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>yonah</t>
+  </si>
+  <si>
+    <t>Finn Hremiako</t>
+  </si>
+  <si>
+    <t>Bibidh </t>
+  </si>
+  <si>
+    <t>Chiyutsau </t>
+  </si>
+  <si>
+    <t>Edward Louis Gomulia</t>
+  </si>
+  <si>
+    <t>Carsyn Chan</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Kainaat</t>
+  </si>
+  <si>
+    <t>Pragun Sikri</t>
+  </si>
+  <si>
+    <t>Pramath </t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Ren jie</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Prakrit Dayal</t>
+  </si>
+  <si>
+    <t>Jin XIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,12 +158,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -134,14 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,15 +509,15 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,312 +546,787 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>259000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>SUM(C2:H2)</f>
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45900</v>
+      </c>
+      <c r="E3" s="3">
+        <v>190300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>SUM(C3:H3)</f>
+        <v>236200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>136600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SUM(C4:H4)</f>
+        <v>136600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>106200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SUM(C5:H5)</f>
+        <v>106200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>75400</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f>SUM(C6:H6)</f>
+        <v>75400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>72300</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f>SUM(C7:H7)</f>
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45300</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f>SUM(C8:H8)</f>
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>39000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f>SUM(C9:H9)</f>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I31" si="0">SUM(C2:H2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16900</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f>SUM(C10:H10)</f>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f>SUM(C11:H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f>SUM(C12:H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f>SUM(C13:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f>SUM(C14:H14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SUM(C15:H15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f>SUM(C16:H16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SUM(C17:H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f>SUM(C18:H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f>SUM(C19:H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f>SUM(C20:H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f>SUM(C21:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f>SUM(C22:H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f>SUM(C23:H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f>SUM(C24:H24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f>SUM(C25:H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f>SUM(C26:H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <f>SUM(C27:H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -800,7 +1337,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -811,7 +1348,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -822,7 +1359,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -833,7 +1370,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -844,7 +1381,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -855,7 +1392,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -866,7 +1403,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -877,7 +1414,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -888,7 +1425,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -899,7 +1436,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -910,7 +1447,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -921,7 +1458,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -932,7 +1469,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -943,7 +1480,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -954,7 +1491,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -965,7 +1502,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -976,7 +1513,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -987,7 +1524,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -998,7 +1535,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1009,7 +1546,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1020,7 +1557,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1031,7 +1568,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1042,7 +1579,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1053,7 +1590,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1064,7 +1601,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1075,7 +1612,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1086,7 +1623,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1097,7 +1634,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1108,7 +1645,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1119,7 +1656,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1130,7 +1667,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1141,7 +1678,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1152,7 +1689,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1163,7 +1700,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1174,7 +1711,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1185,7 +1722,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1196,7 +1733,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1207,7 +1744,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1218,7 +1755,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1229,7 +1766,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1240,7 +1777,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1251,7 +1788,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1262,7 +1799,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1273,7 +1810,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1284,7 +1821,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1295,7 +1832,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1306,7 +1843,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1317,7 +1854,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1328,7 +1865,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1339,7 +1876,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1350,7 +1887,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1361,7 +1898,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1372,7 +1909,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1383,7 +1920,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1394,7 +1931,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1405,7 +1942,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1416,7 +1953,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1427,7 +1964,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1438,7 +1975,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1449,7 +1986,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1460,7 +1997,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1471,7 +2008,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1482,7 +2019,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1493,7 +2030,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1504,7 +2041,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1515,7 +2052,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1526,7 +2063,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1537,7 +2074,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1548,7 +2085,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1559,7 +2096,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1570,7 +2107,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1581,7 +2118,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1592,7 +2129,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1603,7 +2140,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1614,7 +2151,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1625,7 +2162,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1636,7 +2173,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1647,7 +2184,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1658,7 +2195,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1669,7 +2206,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1680,7 +2217,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1691,7 +2228,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1702,7 +2239,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1713,7 +2250,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1724,7 +2261,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1735,7 +2272,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1746,7 +2283,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1757,7 +2294,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1768,7 +2305,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1779,7 +2316,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1790,7 +2327,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1801,7 +2338,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1812,7 +2349,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1823,7 +2360,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1834,7 +2371,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1845,7 +2382,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1856,7 +2393,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1867,7 +2404,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1878,7 +2415,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1889,7 +2426,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1900,7 +2437,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1911,7 +2448,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1922,7 +2459,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1933,7 +2470,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1945,8 +2482,8 @@
       <c r="I132" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I31">
-    <sortCondition descending="1" ref="I2:I31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I27">
+    <sortCondition descending="1" ref="I2:I27"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D6B6D-EBBC-4554-ACD7-17BBE1077D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0F95B7-E95E-49BF-9325-1895850FB8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="4580" windowWidth="19060" windowHeight="10270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -62,14 +62,134 @@
     <t>Total</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Bibidh Kafle</t>
+  </si>
+  <si>
+    <t>Divyansh Jain</t>
+  </si>
+  <si>
+    <t>Chien Wu</t>
+  </si>
+  <si>
+    <t>Ziang Liao</t>
+  </si>
+  <si>
+    <t>Ryan Kin</t>
+  </si>
+  <si>
+    <t>Daniel Thenamkodath</t>
+  </si>
+  <si>
+    <t>Yuhan Qian</t>
+  </si>
+  <si>
+    <t>Lisa Cheong</t>
+  </si>
+  <si>
+    <t>Leon Poor</t>
+  </si>
+  <si>
+    <t>Jingran Zhang</t>
+  </si>
+  <si>
+    <t>Jacob Senior</t>
+  </si>
+  <si>
+    <t>Andrew Walker</t>
+  </si>
+  <si>
+    <t>Nick Wang</t>
+  </si>
+  <si>
+    <t>Nicholas Morrison</t>
+  </si>
+  <si>
+    <t>Samya Vaid</t>
+  </si>
+  <si>
+    <t>Suchit Rawat</t>
+  </si>
+  <si>
+    <t>Ben Dominikowski</t>
+  </si>
+  <si>
+    <t>Peter Wang</t>
+  </si>
+  <si>
+    <t>Arthur Tang</t>
+  </si>
+  <si>
+    <t>Jay Timothy Wang</t>
+  </si>
+  <si>
+    <t>Yan-Wen Lai</t>
+  </si>
+  <si>
+    <t>Canming Zhang</t>
+  </si>
+  <si>
+    <t>Rama Ghosh</t>
+  </si>
+  <si>
+    <t>Elias Molivas</t>
+  </si>
+  <si>
+    <t>aiman shahriar</t>
+  </si>
+  <si>
+    <t>Bailey Alexander</t>
+  </si>
+  <si>
+    <t>Stella Feng</t>
+  </si>
+  <si>
+    <t>Ethan Chan</t>
+  </si>
+  <si>
+    <t>Jeremy Hong</t>
+  </si>
+  <si>
+    <t>Yiyue Yan</t>
+  </si>
+  <si>
+    <t>Lachlan Perrett</t>
+  </si>
+  <si>
+    <t>Carlvince Tan</t>
+  </si>
+  <si>
+    <t>Sai Tipp</t>
+  </si>
+  <si>
+    <t>Damien Trinh</t>
+  </si>
+  <si>
+    <t>Khang Luong</t>
+  </si>
+  <si>
+    <t>Caerwyn James</t>
+  </si>
+  <si>
+    <t>Nicholas Doshi</t>
+  </si>
+  <si>
+    <t>Zanxin Fu</t>
+  </si>
+  <si>
+    <t>Natty Ayano</t>
+  </si>
+  <si>
+    <t>Tavish Balyan</t>
+  </si>
+  <si>
+    <t>Trung Tran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +207,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,10 +246,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,12 +560,13 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -462,794 +602,1190 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2" si="0">SUM(C2:H2)</f>
-        <v>0</v>
+      <c r="C2" s="4">
+        <v>156000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>156000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I13" si="1">SUM(C3:H3)</f>
-        <v>0</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>142600</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>142600</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>142500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>142500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>138400</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>138400</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>121400</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>121400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>118000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>118000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>115600</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>115600</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>114900</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>114900</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>111300</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>111300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>103100</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>103100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>96400</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>96400</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <v>89500</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>89500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ref="I14:I17" si="2">SUM(C14:H14)</f>
-        <v>0</v>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4">
+        <v>84400</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>84400</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>77500</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>77500</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>74100</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>74100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4">
+        <v>74100</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>74100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ref="I18:I19" si="3">SUM(C18:H18)</f>
-        <v>0</v>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>70900</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>70900</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4">
+        <v>59400</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>59400</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4">
+        <v>58000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>58000</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4">
+        <v>55000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>55000</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4">
+        <v>54600</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>54600</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>54300</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>54300</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4">
+        <v>53200</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>53200</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4">
+        <v>50300</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>50300</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>48800</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>48800</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>48600</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>48600</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4">
+        <v>47700</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>47700</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4">
+        <v>47000</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>47000</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4">
+        <v>46700</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>46700</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4">
+        <v>45800</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>45800</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4">
+        <v>42300</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>42300</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4">
+        <v>42000</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>42000</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30400</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>30400</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <v>26000</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>26000</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4">
+        <v>22700</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>22700</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20600</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>20600</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4">
+        <v>14100</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>14100</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4">
+        <v>12400</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>12400</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4">
+        <v>11000</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>11000</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6600</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>6600</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5600</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>5600</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8A387-010B-44C4-9447-F3CB7B062E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F5704C-3AF9-436A-88CC-EF61697252FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Yuhan Qian</t>
   </si>
   <si>
-    <t>Lisa Cheong</t>
-  </si>
-  <si>
     <t>Leon Poor</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>Zhi Qi</t>
   </si>
   <si>
-    <t>Yongha Kim</t>
-  </si>
-  <si>
     <t>Noah Clayton</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Timur Kapasi</t>
   </si>
   <si>
-    <t>Jack Sweeney</t>
-  </si>
-  <si>
     <t>Qin Yu Chong</t>
   </si>
   <si>
@@ -282,6 +273,54 @@
   </si>
   <si>
     <t>Viduwantha</t>
+  </si>
+  <si>
+    <t>Ramses Liem</t>
+  </si>
+  <si>
+    <t>Jack Gibney</t>
+  </si>
+  <si>
+    <t>Declan Rae</t>
+  </si>
+  <si>
+    <t>Debao Li</t>
+  </si>
+  <si>
+    <t>Joy Cheng</t>
+  </si>
+  <si>
+    <t>Yve Hayman</t>
+  </si>
+  <si>
+    <t>Kevin Yu</t>
+  </si>
+  <si>
+    <t>Jack Shen</t>
+  </si>
+  <si>
+    <t>Ujjawal Garg</t>
+  </si>
+  <si>
+    <t>Ben Lloyd</t>
+  </si>
+  <si>
+    <t>Anh Tuan Le</t>
+  </si>
+  <si>
+    <t>A Tran</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Julien Staberhofer</t>
+  </si>
+  <si>
+    <t>Alan Yu</t>
+  </si>
+  <si>
+    <t>Joseph Chen</t>
   </si>
 </sst>
 </file>
@@ -632,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,19 +715,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>42000</v>
+        <v>156000</v>
       </c>
       <c r="D2">
-        <v>87400</v>
+        <v>79200</v>
       </c>
       <c r="E2">
-        <v>240900</v>
+        <v>105300</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -697,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>370300</v>
+        <v>416500</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -705,19 +744,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>156000</v>
+        <v>47000</v>
       </c>
       <c r="D3">
-        <v>79200</v>
+        <v>97400</v>
       </c>
       <c r="E3">
-        <v>105300</v>
+        <v>122800</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>134100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -726,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>340500</v>
+        <v>401300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -734,16 +773,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>138400</v>
+        <v>42000</v>
       </c>
       <c r="D4">
-        <v>67100</v>
+        <v>87400</v>
       </c>
       <c r="E4">
-        <v>69800</v>
+        <v>240900</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -755,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>275300</v>
+        <v>370300</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -763,19 +802,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>47000</v>
+        <v>111300</v>
       </c>
       <c r="D5">
-        <v>97400</v>
+        <v>88800</v>
       </c>
       <c r="E5">
-        <v>122800</v>
+        <v>66400</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -784,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>267200</v>
+        <v>349100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -792,19 +831,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>111300</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>88800</v>
+        <v>78000</v>
       </c>
       <c r="E6">
-        <v>66400</v>
+        <v>160200</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>87800</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -813,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>266500</v>
+        <v>326000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -821,19 +860,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>142600</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>102200</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>322800</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -842,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>244800</v>
+        <v>322800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -850,16 +889,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>138400</v>
       </c>
       <c r="D8">
-        <v>78000</v>
+        <v>67100</v>
       </c>
       <c r="E8">
-        <v>160200</v>
+        <v>69800</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -871,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>238200</v>
+        <v>275300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -879,19 +918,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>96400</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>53200</v>
       </c>
       <c r="E9">
-        <v>129100</v>
+        <v>91500</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>108700</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -900,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>225500</v>
+        <v>253400</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -908,16 +947,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>142600</v>
       </c>
       <c r="D10">
-        <v>68000</v>
+        <v>102200</v>
       </c>
       <c r="E10">
-        <v>127900</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -929,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>195900</v>
+        <v>244800</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -937,16 +976,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>96400</v>
       </c>
       <c r="D11">
-        <v>156800</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>34000</v>
+        <v>129100</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -958,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>190800</v>
+        <v>225500</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -966,19 +1005,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>114900</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>71700</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>138500</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -987,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>164900</v>
+        <v>210200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -995,16 +1034,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>118000</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>154700</v>
+        <v>86000</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1016,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>154700</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1024,10 +1063,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>142500</v>
+        <v>50300</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1036,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>144900</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1045,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>142500</v>
+        <v>195200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1053,19 +1092,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>48600</v>
+        <v>6600</v>
       </c>
       <c r="D15">
-        <v>93000</v>
+        <v>56300</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>132000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1074,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>141600</v>
+        <v>194900</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1082,19 +1121,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C16">
-        <v>74100</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>64400</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>191100</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>138500</v>
+        <v>191100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1111,16 +1150,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>131500</v>
+        <v>156800</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1132,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>131500</v>
+        <v>190800</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1140,19 +1179,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C18">
-        <v>121400</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>100800</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>77200</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1161,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>131400</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1169,16 +1208,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>63700</v>
+        <v>68000</v>
       </c>
       <c r="E19">
-        <v>63700</v>
+        <v>97900</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1190,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>127400</v>
+        <v>165900</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1198,16 +1237,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C20">
-        <v>84400</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>37200</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>154700</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1219,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>121600</v>
+        <v>154700</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1227,19 +1266,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C21">
-        <v>118000</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>77100</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1248,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>118000</v>
+        <v>145100</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1256,13 +1295,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>142500</v>
       </c>
       <c r="D22">
-        <v>116300</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1277,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>116300</v>
+        <v>142500</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1285,13 +1324,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>115600</v>
+        <v>48600</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>93000</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1306,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>115600</v>
+        <v>141600</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1314,19 +1353,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C24">
-        <v>77500</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>140800</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1335,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>108700</v>
+        <v>140800</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1343,16 +1382,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>74100</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>64400</v>
       </c>
       <c r="E25">
-        <v>108300</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1364,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>108300</v>
+        <v>138500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1372,19 +1411,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>45800</v>
       </c>
       <c r="D26">
-        <v>107500</v>
+        <v>23500</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>62700</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1393,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>107500</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1401,13 +1440,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>107000</v>
+        <v>131500</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1422,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>107000</v>
+        <v>131500</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1430,13 +1469,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>40900</v>
+        <v>121400</v>
       </c>
       <c r="D28">
-        <v>64200</v>
+        <v>10000</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1451,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>105100</v>
+        <v>131400</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1459,16 +1498,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C29">
-        <v>103100</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>63700</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>63700</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1480,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>103100</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1488,16 +1527,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>84400</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>37200</v>
       </c>
       <c r="E30">
-        <v>102000</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1509,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>102000</v>
+        <v>121600</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1517,16 +1556,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>116300</v>
       </c>
       <c r="E31">
-        <v>100800</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1538,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>100800</v>
+        <v>116300</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1546,16 +1585,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>89500</v>
+        <v>115600</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1567,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>100400</v>
+        <v>115600</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1575,19 +1614,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>39300</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>60200</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1596,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>99500</v>
+        <v>114000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1604,19 +1643,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>89500</v>
       </c>
       <c r="D34">
-        <v>94900</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1625,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>94900</v>
+        <v>111700</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1633,16 +1672,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>77500</v>
       </c>
       <c r="D35">
-        <v>94800</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1654,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>94800</v>
+        <v>108700</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1662,16 +1701,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>93000</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>108300</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1683,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>93000</v>
+        <v>108300</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1691,13 +1730,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>89300</v>
+        <v>107500</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1712,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>89300</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1720,13 +1759,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>40900</v>
       </c>
       <c r="D38">
-        <v>88800</v>
+        <v>64200</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1741,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>88800</v>
+        <v>105100</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1749,13 +1788,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>54600</v>
+        <v>103100</v>
       </c>
       <c r="D39">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1770,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>74100</v>
+        <v>103100</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1778,10 +1817,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C40">
-        <v>74100</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1790,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>103000</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1799,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>74100</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1807,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1816,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>71700</v>
+        <v>102000</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1828,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>71700</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1836,16 +1875,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C42">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>23500</v>
+        <v>39300</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>60200</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1857,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>69300</v>
+        <v>99500</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1865,7 +1904,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1874,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>96400</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1886,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>68000</v>
+        <v>96400</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1894,13 +1933,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C44">
-        <v>20600</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>44500</v>
+        <v>94900</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1915,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>65100</v>
+        <v>94900</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1923,13 +1962,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C45">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>56300</v>
+        <v>94800</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1944,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>62900</v>
+        <v>94800</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1952,19 +1991,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C46">
-        <v>59400</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>39600</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>53500</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1973,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>59400</v>
+        <v>93100</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1981,13 +2020,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>58000</v>
+        <v>93000</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2002,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>58000</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2010,13 +2049,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>89300</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2031,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>58000</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2039,19 +2078,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>14100</v>
+        <v>26000</v>
       </c>
       <c r="D49">
-        <v>42800</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>59800</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2060,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>56900</v>
+        <v>85800</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2068,13 +2107,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>22700</v>
+        <v>54600</v>
       </c>
       <c r="D50">
-        <v>31600</v>
+        <v>19500</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2089,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>54300</v>
+        <v>74100</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2097,10 +2136,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C51">
-        <v>54300</v>
+        <v>74100</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2118,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>54300</v>
+        <v>74100</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2126,10 +2165,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C52">
-        <v>53200</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2138,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>67100</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2147,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>53200</v>
+        <v>67100</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2155,19 +2194,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>53200</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>66400</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2176,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>53200</v>
+        <v>66400</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2184,13 +2223,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C54">
-        <v>50300</v>
+        <v>20600</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>44500</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2205,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>50300</v>
+        <v>65100</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2213,7 +2252,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2222,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>49000</v>
+        <v>63500</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2234,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>49000</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2242,10 +2281,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C56">
-        <v>48800</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2254,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2263,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>48800</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2271,13 +2310,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>59400</v>
       </c>
       <c r="D57">
-        <v>48600</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2292,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>48600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2300,13 +2339,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C58">
-        <v>47700</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2321,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>47700</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2329,10 +2368,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C59">
-        <v>46700</v>
+        <v>58000</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2350,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>46700</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2358,13 +2397,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="D60">
-        <v>45100</v>
+        <v>42800</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2379,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>45100</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2387,13 +2426,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>22700</v>
       </c>
       <c r="D61">
-        <v>44400</v>
+        <v>31600</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2408,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>44400</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2416,16 +2455,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>54300</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>43900</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2437,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>43900</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2445,10 +2484,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>42300</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2457,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>53800</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2466,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>42300</v>
+        <v>53800</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2474,13 +2513,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>53200</v>
       </c>
       <c r="D64">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2495,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>40600</v>
+        <v>53200</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2503,7 +2542,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2512,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>39600</v>
+        <v>49000</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2524,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>39600</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2532,13 +2571,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>48800</v>
       </c>
       <c r="D66">
-        <v>33100</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2553,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>33100</v>
+        <v>48800</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2561,16 +2600,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>48600</v>
       </c>
       <c r="E67">
-        <v>31300</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2582,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>31300</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2590,10 +2629,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C68">
-        <v>30400</v>
+        <v>47700</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2611,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>30400</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2619,10 +2658,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C69">
-        <v>26000</v>
+        <v>46700</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2640,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>26000</v>
+        <v>46700</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2648,13 +2687,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>22600</v>
+        <v>44400</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2669,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>22600</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2677,16 +2716,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>43900</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2698,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>12400</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2706,10 +2745,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C72">
-        <v>11000</v>
+        <v>42300</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2727,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>11000</v>
+        <v>42300</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2735,19 +2774,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>11000</v>
+        <v>45100</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2756,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>11000</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2764,94 +2803,458 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>41800</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>40900</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>40900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>40600</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>40500</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>33100</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>33100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>31300</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>31300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>30400</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>22600</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>22500</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>22000</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>21800</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85">
+        <v>12400</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>11000</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>11000</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88">
         <v>5600</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>5600</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E6FBF-419D-45A7-ABA0-F3536BC943A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AF4093-EF16-470E-86DA-8F821CD751CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -65,7 +65,205 @@
     <t>Total</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Joseph Chen</t>
+  </si>
+  <si>
+    <t>Ka Guan Neo</t>
+  </si>
+  <si>
+    <t>Jaden Santoso</t>
+  </si>
+  <si>
+    <t>Dean Radle</t>
+  </si>
+  <si>
+    <t>Jade Chen</t>
+  </si>
+  <si>
+    <t>Miguel Cuartero</t>
+  </si>
+  <si>
+    <t>Hanhan chen</t>
+  </si>
+  <si>
+    <t>Edward Greenslade</t>
+  </si>
+  <si>
+    <t>Harry Su</t>
+  </si>
+  <si>
+    <t>Yuta Ma</t>
+  </si>
+  <si>
+    <t>Alec Cheong</t>
+  </si>
+  <si>
+    <t>Shaunak Aswani</t>
+  </si>
+  <si>
+    <t>Anne Chua</t>
+  </si>
+  <si>
+    <t>Sing Sum Simpson Chen</t>
+  </si>
+  <si>
+    <t>Aldrich Liem</t>
+  </si>
+  <si>
+    <t>Farrell Jeremy Hendrawan</t>
+  </si>
+  <si>
+    <t>Farrel Setiadi</t>
+  </si>
+  <si>
+    <t>Khanh Le</t>
+  </si>
+  <si>
+    <t>Ethan Toy</t>
+  </si>
+  <si>
+    <t>Eden Lee</t>
+  </si>
+  <si>
+    <t>Earnest Yuen</t>
+  </si>
+  <si>
+    <t>Mubasshir Samin</t>
+  </si>
+  <si>
+    <t>Denzel Goh</t>
+  </si>
+  <si>
+    <t>Abbe Tanndal</t>
+  </si>
+  <si>
+    <t>Garry Liu</t>
+  </si>
+  <si>
+    <t>Nathaniel Bertram</t>
+  </si>
+  <si>
+    <t>Aryaman Sharma</t>
+  </si>
+  <si>
+    <t>Tien Thang Mai</t>
+  </si>
+  <si>
+    <t>William Chen</t>
+  </si>
+  <si>
+    <t>Declan Bakker</t>
+  </si>
+  <si>
+    <t>Aarav Bhagat</t>
+  </si>
+  <si>
+    <t>chanseo Yoon</t>
+  </si>
+  <si>
+    <t>Aaron Yu Luen Huang</t>
+  </si>
+  <si>
+    <t>Lucas Leas</t>
+  </si>
+  <si>
+    <t>KANHA MITTAL</t>
+  </si>
+  <si>
+    <t>Shunnosuke Koshikawa</t>
+  </si>
+  <si>
+    <t>Adam Lu</t>
+  </si>
+  <si>
+    <t>Prajeet Nichenametla</t>
+  </si>
+  <si>
+    <t>Arthur Tang</t>
+  </si>
+  <si>
+    <t>Amir Murzagaliyev</t>
+  </si>
+  <si>
+    <t>Nova Tasha</t>
+  </si>
+  <si>
+    <t>William Kuht</t>
+  </si>
+  <si>
+    <t>Hamshananth Balasubramanian</t>
+  </si>
+  <si>
+    <t>Nathanael Wan</t>
+  </si>
+  <si>
+    <t>Nick Doshi</t>
+  </si>
+  <si>
+    <t>Anawil Sangareeyakul</t>
+  </si>
+  <si>
+    <t>Dhruv Verma</t>
+  </si>
+  <si>
+    <t>Ross Barrett</t>
+  </si>
+  <si>
+    <t>Ian Rachinsky</t>
+  </si>
+  <si>
+    <t>Zheng heng Lim</t>
+  </si>
+  <si>
+    <t>Owen Moxham</t>
+  </si>
+  <si>
+    <t>Samhith Kodali</t>
+  </si>
+  <si>
+    <t>Aidan Kim</t>
+  </si>
+  <si>
+    <t>Zhao Zhang</t>
+  </si>
+  <si>
+    <t>Samuel Tseytlin</t>
+  </si>
+  <si>
+    <t>Kaiwen He</t>
+  </si>
+  <si>
+    <t>Preston Long</t>
+  </si>
+  <si>
+    <t>kajetan piatkowski</t>
+  </si>
+  <si>
+    <t>Ben Lloyd</t>
+  </si>
+  <si>
+    <t>Sebbe Mattheeuws</t>
+  </si>
+  <si>
+    <t>Shangren lu</t>
+  </si>
+  <si>
+    <t>Chloe Tsang</t>
+  </si>
+  <si>
+    <t>Aarya Pokharel</t>
+  </si>
+  <si>
+    <t>Chris Chau</t>
+  </si>
+  <si>
+    <t>Bosco Mach</t>
+  </si>
+  <si>
+    <t>yiyue yan</t>
+  </si>
+  <si>
+    <t>Long Ha</t>
   </si>
 </sst>
 </file>
@@ -417,13 +615,15 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -460,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>183500</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -481,7 +681,8 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>SUM(C2:H2)</f>
+        <v>183500</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -489,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>136000</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -510,7 +711,8 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f t="shared" ref="I3:I66" si="0">SUM(C3:H3)</f>
+        <v>136000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -518,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>124300</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -539,7 +741,8 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>124300</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -547,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>95400</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -568,7 +771,8 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>95400</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -576,10 +780,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>91900</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -597,7 +801,8 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>91900</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -605,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>85600</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -626,7 +831,8 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>85600</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -634,10 +840,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>71400</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -655,7 +861,8 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>71400</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -663,10 +870,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -684,7 +891,8 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>71000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -692,238 +900,1802 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>63000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>61500</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>58400</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>54000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>51900</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>51900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>51100</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>48700</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>46600</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>46400</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>46000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>44600</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>44400</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>43000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>42800</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>41400</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>41100</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>39100</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>39100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>38500</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>36500</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>34700</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30">
+        <v>34500</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <v>33700</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>33700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>32400</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>31200</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>30000</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>29000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>29000</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>28800</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>28200</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>28000</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>27500</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41">
+        <v>25600</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>25500</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>24700</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>24200</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>24000</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>23800</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>23300</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>23300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>23100</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>23100</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>22900</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>22600</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>22600</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>22400</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>22000</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>21500</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>21000</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>21000</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>19100</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>17800</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>16100</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>15300</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62">
+        <v>14700</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63">
+        <v>14500</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>13600</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>6300</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>5000</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>2700</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I68" si="1">SUM(C67:H67)</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68">
+        <v>200</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AF4093-EF16-470E-86DA-8F821CD751CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9D40BF-609A-4ACC-BE43-401992F1E00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Lucas Leas</t>
   </si>
   <si>
-    <t>KANHA MITTAL</t>
-  </si>
-  <si>
     <t>Shunnosuke Koshikawa</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Zheng heng Lim</t>
   </si>
   <si>
-    <t>Owen Moxham</t>
-  </si>
-  <si>
     <t>Samhith Kodali</t>
   </si>
   <si>
@@ -264,6 +258,66 @@
   </si>
   <si>
     <t>Long Ha</t>
+  </si>
+  <si>
+    <t>Ethan Chan</t>
+  </si>
+  <si>
+    <t>Jaeden Wong</t>
+  </si>
+  <si>
+    <t>Sudarshan Lakshminarasimhan</t>
+  </si>
+  <si>
+    <t>Chiyu Tsai</t>
+  </si>
+  <si>
+    <t>Anuk Indipa Kankanam Gamage</t>
+  </si>
+  <si>
+    <t>Flynn Burak</t>
+  </si>
+  <si>
+    <t>Andrew Liu</t>
+  </si>
+  <si>
+    <t>Krish Sachdeva</t>
+  </si>
+  <si>
+    <t>Amanda Chen</t>
+  </si>
+  <si>
+    <t>aayushi chotalia</t>
+  </si>
+  <si>
+    <t>niruruthi ravichandren</t>
+  </si>
+  <si>
+    <t>adam pat</t>
+  </si>
+  <si>
+    <t>christine cai</t>
+  </si>
+  <si>
+    <t>Zyle Yu</t>
+  </si>
+  <si>
+    <t>Dhruv Menon</t>
+  </si>
+  <si>
+    <t>Tiberiu Gredina</t>
+  </si>
+  <si>
+    <t>Yan Wen Lai</t>
+  </si>
+  <si>
+    <t>Tommaso Sartore</t>
+  </si>
+  <si>
+    <t>Anoop Hiremath</t>
+  </si>
+  <si>
+    <t>Kanha Mittal</t>
   </si>
 </sst>
 </file>
@@ -614,14 +668,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27.453125" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" customWidth="1"/>
     <col min="11" max="11" width="8.81640625" customWidth="1"/>
   </cols>
@@ -660,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>183500</v>
+        <v>41100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>171000</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -681,8 +736,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUM(C2:H2)</f>
-        <v>183500</v>
+        <v>212100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -690,10 +744,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>136000</v>
+        <v>183500</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -711,8 +765,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">SUM(C3:H3)</f>
-        <v>136000</v>
+        <v>183500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -720,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C4">
-        <v>124300</v>
+        <v>136000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -741,8 +794,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>124300</v>
+        <v>161500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -750,13 +802,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>95400</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>135500</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,8 +823,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>95400</v>
+        <v>135500</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -780,10 +831,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>91900</v>
+        <v>124300</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -801,8 +852,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>91900</v>
+        <v>124300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -810,13 +860,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C7">
-        <v>85600</v>
+        <v>61500</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>62600</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -831,8 +881,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>85600</v>
+        <v>124100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -840,13 +889,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>71400</v>
+        <v>85600</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,8 +910,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>71400</v>
+        <v>121300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -870,13 +918,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C9">
-        <v>71000</v>
+        <v>71400</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -891,8 +939,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>71000</v>
+        <v>109100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -900,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C10">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>99600</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -921,8 +968,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>63000</v>
+        <v>99600</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -930,10 +976,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>61500</v>
+        <v>95400</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -951,8 +997,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>61500</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -960,10 +1005,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C12">
-        <v>58400</v>
+        <v>91900</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -981,8 +1026,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>58400</v>
+        <v>91900</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -990,14 +1034,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C13">
+        <v>29000</v>
+      </c>
+      <c r="D13">
         <v>54000</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
@@ -1011,8 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>54000</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1020,13 +1063,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C14">
-        <v>51900</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>82100</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1041,8 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>51900</v>
+        <v>82100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1050,13 +1092,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>51100</v>
+        <v>43000</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>36600</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1071,8 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>51100</v>
+        <v>79600</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1080,13 +1121,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C16">
-        <v>48700</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1101,8 +1142,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>48700</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1110,13 +1150,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C17">
-        <v>46600</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>71800</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1131,8 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>46600</v>
+        <v>71800</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1140,13 +1179,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>46400</v>
+        <v>28200</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1161,8 +1200,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>46400</v>
+        <v>69700</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1170,13 +1208,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19">
-        <v>46000</v>
+        <v>32400</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1191,8 +1229,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>46000</v>
+        <v>69500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1200,13 +1237,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>44600</v>
+        <v>27500</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1221,8 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>44600</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1230,10 +1266,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>44400</v>
+        <v>63000</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1251,8 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1260,10 +1295,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C22">
-        <v>43000</v>
+        <v>59400</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1281,8 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>43000</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1290,13 +1324,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>42800</v>
+        <v>22600</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>31700</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1311,8 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
-        <v>42800</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1320,10 +1353,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>41400</v>
+        <v>54000</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1341,8 +1374,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>41400</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1350,10 +1382,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>41100</v>
+        <v>51900</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1371,8 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>41100</v>
+        <v>51900</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1380,10 +1411,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26">
-        <v>39100</v>
+        <v>51100</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1401,8 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>39100</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1410,13 +1440,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C27">
-        <v>38500</v>
+        <v>9800</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1431,8 +1461,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>38500</v>
+        <v>50300</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1440,13 +1469,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C28">
-        <v>36500</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>50100</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1461,8 +1490,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>36500</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1470,10 +1498,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>34700</v>
+        <v>48700</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1491,8 +1519,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>34700</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1500,13 +1527,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>34500</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1521,8 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>34500</v>
+        <v>47200</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1530,10 +1556,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C31">
-        <v>33700</v>
+        <v>46600</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1551,8 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>33700</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1560,10 +1585,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>32400</v>
+        <v>46400</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1581,8 +1606,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>32400</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1590,10 +1614,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>31200</v>
+        <v>46000</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1611,8 +1635,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>31200</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1620,10 +1643,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>30000</v>
+        <v>44600</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1641,8 +1664,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1650,10 +1672,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>29000</v>
+        <v>44400</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1671,8 +1693,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>29000</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1680,10 +1701,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>29000</v>
+        <v>42800</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1701,8 +1722,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>29000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1710,13 +1730,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C37">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>41700</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1731,8 +1751,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>28800</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1740,10 +1759,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>28200</v>
+        <v>41400</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1761,8 +1780,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>28200</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1770,10 +1788,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C39">
-        <v>28000</v>
+        <v>39100</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1791,8 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1800,10 +1817,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>27500</v>
+        <v>38500</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1821,8 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>27500</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1830,10 +1846,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>25600</v>
+        <v>36500</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1851,8 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
-        <v>25600</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1860,13 +1875,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C42">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>36300</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1881,8 +1896,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1890,13 +1904,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>24700</v>
+        <v>33700</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1911,8 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
-        <v>24700</v>
+        <v>34900</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1920,10 +1933,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C44">
-        <v>24200</v>
+        <v>34700</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1941,8 +1954,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>24200</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1950,13 +1962,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C45">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1971,8 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1980,13 +1991,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C46">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>34100</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2001,8 +2012,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
-        <v>23800</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2010,13 +2020,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C47">
-        <v>23300</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>33600</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2031,8 +2041,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>23300</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2040,13 +2049,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C48">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>31700</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2061,8 +2070,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
-        <v>23100</v>
+        <v>31700</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2070,10 +2078,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>23100</v>
+        <v>31200</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2091,8 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
-        <v>23100</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2100,13 +2107,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C50">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2121,8 +2128,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
-        <v>22900</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2130,10 +2136,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <v>22600</v>
+        <v>30000</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2151,8 +2157,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
-        <v>22600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2160,10 +2165,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C52">
-        <v>22600</v>
+        <v>29000</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2181,8 +2186,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
-        <v>22600</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2190,10 +2194,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C53">
-        <v>22400</v>
+        <v>28800</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2211,8 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
-        <v>22400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2220,10 +2223,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C54">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2241,8 +2244,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
-        <v>22000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2250,10 +2252,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>21500</v>
+        <v>25600</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2271,8 +2273,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
-        <v>21500</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2280,10 +2281,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C56">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2301,8 +2302,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2310,10 +2310,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C57">
-        <v>21000</v>
+        <v>24700</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2331,8 +2331,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2340,10 +2339,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C58">
-        <v>19100</v>
+        <v>24200</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2361,8 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
-        <v>19100</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2370,10 +2368,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C59">
-        <v>17800</v>
+        <v>24000</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2391,8 +2389,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
-        <v>17800</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2400,10 +2397,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C60">
-        <v>16100</v>
+        <v>23300</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2421,8 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
-        <v>16100</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2430,10 +2426,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C61">
-        <v>15300</v>
+        <v>23100</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2451,8 +2447,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
-        <v>15300</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2460,10 +2455,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>14700</v>
+        <v>22900</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2481,8 +2476,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
-        <v>14700</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2490,10 +2484,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>14500</v>
+        <v>22600</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2511,8 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
-        <v>14500</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2520,10 +2513,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C64">
-        <v>13600</v>
+        <v>22400</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2541,8 +2534,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
-        <v>13600</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2550,10 +2542,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C65">
-        <v>6300</v>
+        <v>22000</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2571,8 +2563,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2580,10 +2571,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>5000</v>
+        <v>21500</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2601,8 +2592,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2610,10 +2600,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>2700</v>
+        <v>21000</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2631,8 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I68" si="1">SUM(C67:H67)</f>
-        <v>2700</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2640,110 +2629,580 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C68">
+        <v>21000</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>19400</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>19100</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>19000</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72">
+        <v>15300</v>
+      </c>
+      <c r="D72">
+        <v>2700</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>17800</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74">
+        <v>16100</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75">
+        <v>14700</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>14600</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77">
+        <v>14500</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>13600</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>10600</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>9100</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>9000</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82">
+        <v>6300</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83">
+        <v>5000</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84">
+        <v>2700</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>2700</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86">
         <v>200</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="1"/>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9D40BF-609A-4ACC-BE43-401992F1E00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3C7E4-71B2-434D-AC1A-D4D6FAA871E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -299,9 +299,6 @@
     <t>christine cai</t>
   </si>
   <si>
-    <t>Zyle Yu</t>
-  </si>
-  <si>
     <t>Dhruv Menon</t>
   </si>
   <si>
@@ -317,7 +314,16 @@
     <t>Anoop Hiremath</t>
   </si>
   <si>
-    <t>Kanha Mittal</t>
+    <t>Ben McFall</t>
+  </si>
+  <si>
+    <t>KANHA MITTAL</t>
+  </si>
+  <si>
+    <t>Zule Yu</t>
+  </si>
+  <si>
+    <t>Quoc Khanh Nguyen</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,16 +721,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>41100</v>
+        <v>32400</v>
       </c>
       <c r="D2">
-        <v>171000</v>
+        <v>37100</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>148800</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>212100</v>
+        <v>218300</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -744,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>183500</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>82100</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>132800</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -765,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>183500</v>
+        <v>214900</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -773,13 +779,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>136000</v>
+        <v>41100</v>
       </c>
       <c r="D4">
-        <v>25500</v>
+        <v>171000</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>161500</v>
+        <v>212100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -802,13 +808,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>183500</v>
       </c>
       <c r="D5">
-        <v>135500</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>135500</v>
+        <v>183500</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -831,13 +837,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>124300</v>
+        <v>136000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -852,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>124300</v>
+        <v>161500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -860,13 +866,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>61500</v>
+        <v>41400</v>
       </c>
       <c r="D7">
-        <v>62600</v>
+        <v>97500</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>124100</v>
+        <v>138900</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -889,13 +895,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>85600</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>35700</v>
+        <v>135500</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>121300</v>
+        <v>135500</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -918,13 +924,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>71400</v>
+        <v>124300</v>
       </c>
       <c r="D9">
-        <v>37700</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>109100</v>
+        <v>124300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -947,13 +953,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="D10">
-        <v>99600</v>
+        <v>62600</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>99600</v>
+        <v>124100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -976,16 +982,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>95400</v>
+        <v>43000</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>36600</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>44200</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>95400</v>
+        <v>123800</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1005,13 +1011,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>91900</v>
+        <v>85600</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1026,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>91900</v>
+        <v>121300</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1034,13 +1040,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>29000</v>
+        <v>71400</v>
       </c>
       <c r="D13">
-        <v>54000</v>
+        <v>37700</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83000</v>
+        <v>109100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1063,16 +1069,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>59400</v>
       </c>
       <c r="D14">
-        <v>82100</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>46500</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82100</v>
+        <v>105900</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1092,16 +1098,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C15">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>36600</v>
+        <v>31200</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>71500</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>79600</v>
+        <v>102700</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1121,16 +1127,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="D16">
-        <v>72000</v>
+        <v>41500</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>72000</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1150,13 +1156,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>71800</v>
+        <v>99600</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>71800</v>
+        <v>99600</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1179,16 +1185,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>28200</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>41500</v>
+        <v>71800</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1200,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>69700</v>
+        <v>97400</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1208,13 +1214,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>32400</v>
+        <v>95400</v>
       </c>
       <c r="D19">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1229,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>69500</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1237,16 +1243,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>27500</v>
+        <v>46400</v>
       </c>
       <c r="D20">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>62800</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1258,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>64500</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1266,10 +1272,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <v>63000</v>
+        <v>91900</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1287,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>63000</v>
+        <v>91900</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1295,13 +1301,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>59400</v>
+        <v>29000</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>59400</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1324,16 +1330,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C23">
-        <v>22600</v>
+        <v>44400</v>
       </c>
       <c r="D23">
-        <v>31700</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>34500</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>54300</v>
+        <v>78900</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1353,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>54000</v>
+        <v>44600</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>48600</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1374,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>54000</v>
+        <v>78200</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1382,16 +1388,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C25">
-        <v>51900</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1403,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>51900</v>
+        <v>76200</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1411,16 +1417,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C26">
-        <v>51100</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>34100</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>51100</v>
+        <v>74600</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1440,16 +1446,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C27">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>40500</v>
+        <v>33600</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1461,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>50300</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1469,13 +1475,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>50100</v>
+        <v>72000</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1490,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>50100</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1498,13 +1504,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>48700</v>
+        <v>27500</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>48700</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1527,13 +1533,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C30">
-        <v>34500</v>
+        <v>63000</v>
       </c>
       <c r="D30">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1548,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>47200</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1556,13 +1562,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>46600</v>
+        <v>22600</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>31700</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1577,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>46600</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1585,10 +1591,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>46400</v>
+        <v>54000</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1606,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>46400</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1614,16 +1620,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C33">
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>42900</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1635,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>46000</v>
+        <v>53500</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1643,16 +1649,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>22300</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>44600</v>
+        <v>53300</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1672,10 +1678,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>44400</v>
+        <v>51900</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1693,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>44400</v>
+        <v>51900</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1701,10 +1707,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C36">
-        <v>42800</v>
+        <v>51100</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1722,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>42800</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1730,13 +1736,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="D37">
-        <v>41700</v>
+        <v>40500</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1751,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>41700</v>
+        <v>50300</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1759,13 +1765,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C38">
-        <v>41400</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>50100</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1780,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>41400</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1788,10 +1794,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39">
-        <v>39100</v>
+        <v>48700</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1809,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>39100</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1817,13 +1823,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C40">
-        <v>38500</v>
+        <v>34500</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1838,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>38500</v>
+        <v>47200</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1846,10 +1852,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C41">
-        <v>36500</v>
+        <v>46600</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>36500</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1875,16 +1881,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>36300</v>
+        <v>19000</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1896,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>36300</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1904,16 +1910,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C43">
-        <v>33700</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1200</v>
+        <v>19400</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1925,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>34900</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1933,10 +1939,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>34700</v>
+        <v>42800</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1954,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>34700</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1962,13 +1968,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C45">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>11000</v>
+        <v>41700</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1983,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>34100</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1991,16 +1997,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="D46">
-        <v>34100</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2012,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>34100</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2020,13 +2026,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>39100</v>
       </c>
       <c r="D47">
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2041,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>33600</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2049,13 +2055,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="D48">
-        <v>31700</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>31700</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2078,10 +2084,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>31200</v>
+        <v>36500</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2099,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>31200</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2107,13 +2113,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>31200</v>
+        <v>36300</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2128,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>31200</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2136,10 +2142,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2157,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>30000</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2165,13 +2171,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>29000</v>
+        <v>23100</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2186,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>29000</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2194,16 +2200,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C53">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>28800</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2223,13 +2229,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C54">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>31700</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2244,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>28000</v>
+        <v>31700</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2252,10 +2258,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>25600</v>
+        <v>31200</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>25600</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2281,16 +2287,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C56">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2302,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>25500</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2310,10 +2316,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57">
-        <v>24700</v>
+        <v>30000</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>24700</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2339,10 +2345,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C58">
-        <v>24200</v>
+        <v>29000</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>24200</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2368,16 +2374,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C59">
-        <v>24000</v>
+        <v>15300</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2389,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>24000</v>
+        <v>28900</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2397,10 +2403,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C60">
-        <v>23300</v>
+        <v>28800</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2418,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>23300</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2426,10 +2432,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C61">
-        <v>23100</v>
+        <v>28000</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>23100</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2455,10 +2461,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>22900</v>
+        <v>25600</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2476,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>22900</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2484,10 +2490,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C63">
-        <v>22600</v>
+        <v>25500</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2505,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>22600</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2513,10 +2519,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C64">
-        <v>22400</v>
+        <v>24700</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2534,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>22400</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2542,10 +2548,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C65">
-        <v>22000</v>
+        <v>24200</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2563,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>22000</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2571,10 +2577,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2592,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>21500</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2600,10 +2606,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C67">
-        <v>21000</v>
+        <v>23300</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2621,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>21000</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2629,10 +2635,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C68">
-        <v>21000</v>
+        <v>23100</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2650,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>21000</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2658,13 +2664,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>22900</v>
       </c>
       <c r="D69">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2679,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>19400</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2687,10 +2693,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>19100</v>
+        <v>22600</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2708,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>19100</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2716,13 +2722,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="D71">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2737,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>19000</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2745,13 +2751,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C72">
-        <v>15300</v>
+        <v>22000</v>
       </c>
       <c r="D72">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2766,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>18000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2774,10 +2780,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>17800</v>
+        <v>21500</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2795,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>17800</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2803,16 +2809,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C74">
-        <v>16100</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>21100</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2824,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>16100</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2832,10 +2838,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>14700</v>
+        <v>21000</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2853,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>14700</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2861,13 +2867,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>33700</v>
       </c>
       <c r="D76">
-        <v>14600</v>
+        <v>1200</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2882,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>14600</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2890,10 +2896,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>14500</v>
+        <v>19100</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2911,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>14500</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2919,10 +2925,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>13600</v>
+        <v>17800</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2940,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>13600</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2948,13 +2954,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="D79">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2969,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>10600</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2977,13 +2983,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="D80">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2998,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>9100</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3006,13 +3012,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="D81">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3027,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>9000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3035,10 +3041,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C82">
-        <v>6300</v>
+        <v>13600</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3056,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>6300</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3064,13 +3070,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C83">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3085,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>5000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3093,10 +3099,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C84">
-        <v>2700</v>
+        <v>6300</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3114,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>2700</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3122,13 +3128,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D85">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>2700</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3151,35 +3157,87 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86">
+        <v>2700</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>2700</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
         <v>50</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>200</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>200</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3C7E4-71B2-434D-AC1A-D4D6FAA871E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E93DCA-FA8E-504B-B93D-492097CF5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="4620" windowWidth="30240" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$64</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -317,13 +317,25 @@
     <t>Ben McFall</t>
   </si>
   <si>
-    <t>KANHA MITTAL</t>
-  </si>
-  <si>
     <t>Zule Yu</t>
   </si>
   <si>
     <t>Quoc Khanh Nguyen</t>
+  </si>
+  <si>
+    <t>Kanha Mittal</t>
+  </si>
+  <si>
+    <t>Owen Moxham</t>
+  </si>
+  <si>
+    <t>Khalud</t>
+  </si>
+  <si>
+    <t>julian kennedy</t>
+  </si>
+  <si>
+    <t>Nick Liang</t>
   </si>
 </sst>
 </file>
@@ -675,19 +687,19 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,24 +728,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>32400</v>
+        <v>41100</v>
       </c>
       <c r="D2">
-        <v>37100</v>
+        <v>171000</v>
       </c>
       <c r="E2">
-        <v>148800</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -742,27 +754,27 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>218300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>252100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="D3">
-        <v>82100</v>
+        <v>62600</v>
       </c>
       <c r="E3">
-        <v>132800</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>125500</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -771,27 +783,27 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>214900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>249600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>41100</v>
+        <v>28200</v>
       </c>
       <c r="D4">
-        <v>171000</v>
+        <v>41500</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>138000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -800,24 +812,24 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>212100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>222700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>183500</v>
+        <v>32400</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>148800</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -829,24 +841,24 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>183500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>218300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>136000</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>25500</v>
+        <v>82100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>132800</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -858,27 +870,27 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>161500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>214900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C7">
-        <v>41400</v>
+        <v>44600</v>
       </c>
       <c r="D7">
-        <v>97500</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>48600</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>120600</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -887,27 +899,27 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>138900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>198800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="D8">
-        <v>135500</v>
+        <v>36600</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>44200</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -916,27 +928,27 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>135500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>189800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>124300</v>
+        <v>59400</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>46500</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>78100</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -945,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>124300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>61500</v>
+        <v>183500</v>
       </c>
       <c r="D10">
-        <v>62600</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -974,27 +986,27 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>124100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>183500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>36600</v>
+        <v>31200</v>
       </c>
       <c r="E11">
-        <v>44200</v>
+        <v>71500</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1003,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>123800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>178700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <v>85600</v>
+        <v>136000</v>
       </c>
       <c r="D12">
-        <v>35700</v>
+        <v>25500</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1032,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>121300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>161500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C13">
-        <v>71400</v>
+        <v>71000</v>
       </c>
       <c r="D13">
-        <v>37700</v>
+        <v>81400</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1061,24 +1073,24 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>109100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>152400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>59400</v>
+        <v>41400</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>97500</v>
       </c>
       <c r="E14">
-        <v>46500</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1090,24 +1102,24 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>105900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>138900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>31200</v>
+        <v>135500</v>
       </c>
       <c r="E15">
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1119,24 +1131,24 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>102700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>135500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>28200</v>
+        <v>124300</v>
       </c>
       <c r="D16">
-        <v>41500</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1148,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>99700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>124300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>85600</v>
       </c>
       <c r="D17">
-        <v>99600</v>
+        <v>35700</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1177,27 +1189,27 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>99600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>121300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>44400</v>
       </c>
       <c r="D18">
-        <v>71800</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>25600</v>
+        <v>34500</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>97400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>119500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>95400</v>
+        <v>71400</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1235,27 +1247,27 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>95400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>109100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C20">
-        <v>46400</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="E20">
-        <v>62800</v>
+        <v>42900</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>52200</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1264,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>94200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>91900</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>99600</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1293,24 +1305,24 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>91900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>99600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C22">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>54000</v>
+        <v>71800</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1322,24 +1334,24 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>83000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>44400</v>
+        <v>95400</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1351,24 +1363,24 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>78900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>95400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>44600</v>
+        <v>46400</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>48600</v>
+        <v>62800</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1380,24 +1392,24 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>91900</v>
       </c>
       <c r="D25">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>22200</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1409,27 +1421,27 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>76200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>91900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>34100</v>
+        <v>54000</v>
       </c>
       <c r="E26">
-        <v>40500</v>
+        <v>22200</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1438,24 +1450,24 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>74600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>91300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>33600</v>
+        <v>34100</v>
       </c>
       <c r="E27">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1467,24 +1479,24 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>74000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>74600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>72000</v>
+        <v>33600</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1496,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C29">
-        <v>27500</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1525,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>64500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C30">
-        <v>63000</v>
+        <v>29000</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1554,27 +1566,27 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>63000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C31">
-        <v>22600</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>31700</v>
+        <v>19400</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1583,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>54300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C32">
-        <v>54000</v>
+        <v>27500</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1612,27 +1624,27 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>64500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>34500</v>
       </c>
       <c r="D33">
-        <v>10600</v>
+        <v>12700</v>
       </c>
       <c r="E33">
-        <v>42900</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1641,24 +1653,24 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>53500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>63300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C34">
-        <v>46000</v>
+        <v>63000</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>22300</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1670,18 +1682,18 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>53300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C35">
-        <v>51900</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1690,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>61600</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1699,27 +1711,27 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>51900</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C36">
-        <v>51100</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1728,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>51100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>59600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>9800</v>
+        <v>22600</v>
       </c>
       <c r="D37">
-        <v>40500</v>
+        <v>31700</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1757,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>50300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="D38">
-        <v>50100</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1786,24 +1798,24 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>50100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>48700</v>
+        <v>46000</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>22300</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1815,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>48700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>53300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>34500</v>
+        <v>51900</v>
       </c>
       <c r="D40">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1844,18 +1856,18 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>47200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>51900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>46600</v>
+        <v>21500</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1864,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>30200</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1873,24 +1885,24 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>46600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>51100</v>
       </c>
       <c r="D42">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1902,27 +1914,27 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1931,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C44">
-        <v>42800</v>
+        <v>9800</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1960,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>50300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>41700</v>
+        <v>50100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1989,24 +2001,24 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>41700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>21000</v>
+        <v>48700</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2018,18 +2030,18 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C47">
-        <v>39100</v>
+        <v>46600</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2047,24 +2059,24 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>39100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C48">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2076,18 +2088,18 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>38500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>36500</v>
+        <v>42800</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2105,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>36500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>36300</v>
+        <v>41700</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2134,18 +2146,18 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C51">
-        <v>34700</v>
+        <v>39100</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2163,21 +2175,21 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>34700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>23100</v>
+        <v>38500</v>
       </c>
       <c r="D52">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2192,24 +2204,24 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>34100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>36500</v>
       </c>
       <c r="D53">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2221,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>31700</v>
+        <v>36300</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2250,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>31700</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>31200</v>
+        <v>34700</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2279,24 +2291,24 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>31200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>23100</v>
       </c>
       <c r="D56">
-        <v>9100</v>
+        <v>11000</v>
       </c>
       <c r="E56">
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2308,18 +2320,18 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>30700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C57">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2328,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2337,24 +2349,24 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C58">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2366,24 +2378,24 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C59">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2700</v>
+        <v>31700</v>
       </c>
       <c r="E59">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2395,18 +2407,18 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>28900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C60">
-        <v>28800</v>
+        <v>30000</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2424,18 +2436,18 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C61">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2453,24 +2465,24 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C62">
-        <v>25600</v>
+        <v>15300</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2482,18 +2494,18 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C63">
-        <v>25500</v>
+        <v>28800</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2511,18 +2523,18 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C64">
-        <v>24700</v>
+        <v>28000</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2540,24 +2552,24 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>24700</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C65">
-        <v>24200</v>
+        <v>21000</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2569,18 +2581,18 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>24200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>24000</v>
+        <v>25600</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2598,18 +2610,18 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C67">
-        <v>23300</v>
+        <v>25500</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2627,18 +2639,18 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>23300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>23100</v>
+        <v>24700</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2656,18 +2668,18 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>22900</v>
+        <v>24200</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2685,18 +2697,18 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>22900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C70">
-        <v>22600</v>
+        <v>24000</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2714,18 +2726,18 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>22600</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C71">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2743,18 +2755,18 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+        <v>23300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C72">
-        <v>22000</v>
+        <v>23100</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2772,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C73">
-        <v>21500</v>
+        <v>22900</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2801,24 +2813,24 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>21500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>22600</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2830,18 +2842,18 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>21100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C75">
-        <v>21000</v>
+        <v>22400</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2859,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C76">
-        <v>33700</v>
+        <v>22000</v>
       </c>
       <c r="D76">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2888,24 +2900,24 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>19900</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C77">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>21100</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2917,21 +2929,21 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>19100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C78">
-        <v>17800</v>
+        <v>33700</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2946,18 +2958,18 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>17800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>16100</v>
+        <v>19100</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2975,18 +2987,18 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>16100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C80">
-        <v>14700</v>
+        <v>17800</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3004,18 +3016,18 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C81">
-        <v>14500</v>
+        <v>31200</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3033,18 +3045,18 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C82">
-        <v>13600</v>
+        <v>16100</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3062,21 +3074,21 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>13600</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="D83">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3091,18 +3103,18 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C84">
-        <v>6300</v>
+        <v>14500</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3120,18 +3132,18 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>5000</v>
+        <v>13600</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3149,21 +3161,21 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C86">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3178,21 +3190,21 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="D87">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3207,168 +3219,272 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>21000</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89">
+        <v>5000</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>2700</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>2700</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>50</v>
       </c>
-      <c r="C88">
+      <c r="C92">
         <v>200</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Beginner.xlsx
+++ b/public/res/leaderboards/Beginner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3C7E4-71B2-434D-AC1A-D4D6FAA871E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F8521B-A6E5-4013-B674-D117A65C137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -317,13 +317,58 @@
     <t>Ben McFall</t>
   </si>
   <si>
-    <t>KANHA MITTAL</t>
-  </si>
-  <si>
     <t>Zule Yu</t>
   </si>
   <si>
     <t>Quoc Khanh Nguyen</t>
+  </si>
+  <si>
+    <t>Hubert Li</t>
+  </si>
+  <si>
+    <t>Achal Jhawar</t>
+  </si>
+  <si>
+    <t>Ryan Kin</t>
+  </si>
+  <si>
+    <t>Natty Ayano</t>
+  </si>
+  <si>
+    <t>Jeffrey Liu</t>
+  </si>
+  <si>
+    <t>Owen Moxham</t>
+  </si>
+  <si>
+    <t>Keyur Gohel</t>
+  </si>
+  <si>
+    <t>Sparsh Basantani</t>
+  </si>
+  <si>
+    <t>Michael Tran</t>
+  </si>
+  <si>
+    <t>julian kennedy</t>
+  </si>
+  <si>
+    <t>Nick Liang</t>
+  </si>
+  <si>
+    <t>Khalud</t>
+  </si>
+  <si>
+    <t>sebastian Situmorang</t>
+  </si>
+  <si>
+    <t>Yanwen Kai</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>Kanha Mittal</t>
   </si>
 </sst>
 </file>
@@ -674,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,28 +766,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>32400</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>37100</v>
+        <v>72000</v>
       </c>
       <c r="E2">
-        <v>148800</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>251900</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>218300</v>
+        <v>323900</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -750,28 +795,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="D3">
-        <v>82100</v>
+        <v>62600</v>
       </c>
       <c r="E3">
-        <v>132800</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>125500</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>38800</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>214900</v>
+        <v>288400</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -779,28 +824,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>41100</v>
+        <v>59400</v>
       </c>
       <c r="D4">
-        <v>171000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>46500</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>78100</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>97500</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>212100</v>
+        <v>281500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -808,28 +853,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>183500</v>
+        <v>41100</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>171000</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>183500</v>
+        <v>273500</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -837,13 +882,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>136000</v>
+        <v>124300</v>
       </c>
       <c r="D6">
-        <v>25500</v>
+        <v>115000</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -858,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>161500</v>
+        <v>239300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -866,28 +911,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C7">
-        <v>41400</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>97500</v>
+        <v>31200</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>71500</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>138900</v>
+        <v>226700</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -895,28 +940,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>135500</v>
+        <v>28000</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>156600</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>135500</v>
+        <v>225600</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -924,19 +969,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>124300</v>
+        <v>28200</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>138000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -945,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>124300</v>
+        <v>222700</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -953,16 +998,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>61500</v>
+        <v>32400</v>
       </c>
       <c r="D10">
-        <v>62600</v>
+        <v>37100</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>148800</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -974,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>124100</v>
+        <v>218300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -982,16 +1027,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>36600</v>
+        <v>82100</v>
       </c>
       <c r="E11">
-        <v>44200</v>
+        <v>132800</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1003,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>123800</v>
+        <v>214900</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1011,13 +1056,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>85600</v>
+        <v>31200</v>
       </c>
       <c r="D12">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1026,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>182700</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>121300</v>
+        <v>198900</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1040,19 +1085,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13">
-        <v>71400</v>
+        <v>44600</v>
       </c>
       <c r="D13">
-        <v>37700</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>48600</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>120600</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1061,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>109100</v>
+        <v>198800</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1069,28 +1114,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C14">
-        <v>59400</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="E14">
-        <v>46500</v>
+        <v>42900</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>52200</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>123100</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>105900</v>
+        <v>198800</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1098,19 +1143,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="D15">
-        <v>31200</v>
+        <v>36600</v>
       </c>
       <c r="E15">
-        <v>71500</v>
+        <v>44200</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1119,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>102700</v>
+        <v>189800</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1127,16 +1172,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>28200</v>
+        <v>183500</v>
       </c>
       <c r="D16">
-        <v>41500</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1148,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>99700</v>
+        <v>183500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1156,13 +1201,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>136000</v>
       </c>
       <c r="D17">
-        <v>99600</v>
+        <v>25500</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1177,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>99600</v>
+        <v>161500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1185,16 +1230,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="D18">
-        <v>71800</v>
+        <v>81400</v>
       </c>
       <c r="E18">
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1206,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>97400</v>
+        <v>152400</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1214,10 +1259,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C19">
-        <v>95400</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1226,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>61600</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>95400</v>
+        <v>150600</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1243,16 +1288,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>46400</v>
+        <v>41400</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>97500</v>
       </c>
       <c r="E20">
-        <v>62800</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1264,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>94200</v>
+        <v>138900</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1272,13 +1317,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C21">
-        <v>91900</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>135500</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1293,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>91900</v>
+        <v>135500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1301,28 +1346,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C22">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>54000</v>
+        <v>34100</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>83000</v>
+        <v>131600</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1330,16 +1375,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23">
-        <v>44400</v>
+        <v>85600</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="E23">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1351,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>78900</v>
+        <v>121300</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1359,19 +1404,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>48600</v>
+        <v>34500</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1380,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78200</v>
+        <v>119500</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1388,28 +1433,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>54000</v>
+        <v>9100</v>
       </c>
       <c r="E25">
-        <v>22200</v>
+        <v>21600</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>55900</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>76200</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1417,16 +1462,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>71400</v>
       </c>
       <c r="D26">
-        <v>34100</v>
+        <v>37700</v>
       </c>
       <c r="E26">
-        <v>40500</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1438,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>74600</v>
+        <v>109100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1446,28 +1491,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>33600</v>
+        <v>54000</v>
       </c>
       <c r="E27">
-        <v>40400</v>
+        <v>22200</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>74000</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1475,19 +1520,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>105200</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1496,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>72000</v>
+        <v>105200</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1504,13 +1549,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C29">
-        <v>27500</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>37000</v>
+        <v>99600</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1525,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>64500</v>
+        <v>99600</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1533,16 +1578,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C30">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>71800</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1554,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>63000</v>
+        <v>97400</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1562,13 +1607,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>22600</v>
+        <v>95400</v>
       </c>
       <c r="D31">
-        <v>31700</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1583,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>54300</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1591,10 +1636,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C32">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1606,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>94700</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>54000</v>
+        <v>94700</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1620,16 +1665,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>46400</v>
       </c>
       <c r="D33">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>42900</v>
+        <v>62800</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1641,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>53500</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1649,16 +1694,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C34">
-        <v>46000</v>
+        <v>91900</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>22300</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1670,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>53300</v>
+        <v>91900</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1678,28 +1723,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>51900</v>
+        <v>34500</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>51900</v>
+        <v>86300</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1707,16 +1752,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C36">
-        <v>51100</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1728,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>51100</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1736,16 +1781,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>40500</v>
+        <v>33600</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1757,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>50300</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1765,13 +1810,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="D38">
-        <v>50100</v>
+        <v>54000</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1786,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>50100</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1794,19 +1839,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C39">
-        <v>48700</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1815,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>48700</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1823,13 +1868,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C40">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>12700</v>
+        <v>64800</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1844,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>47200</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1852,13 +1897,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>46600</v>
+        <v>27500</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1873,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>46600</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1881,16 +1926,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="D42">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1902,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>45000</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1910,19 +1955,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>55800</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1931,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>44000</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1939,13 +1984,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>42800</v>
+        <v>22600</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>31700</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1960,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>42800</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1968,13 +2013,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="D45">
-        <v>41700</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1989,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>41700</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1997,16 +2042,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>21000</v>
+        <v>46000</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>20000</v>
+        <v>22300</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2018,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>41000</v>
+        <v>53300</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2026,10 +2071,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>39100</v>
+        <v>51900</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2047,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>39100</v>
+        <v>51900</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2055,10 +2100,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>38500</v>
+        <v>51100</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2076,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>38500</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2084,10 +2129,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C49">
-        <v>36500</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2096,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2105,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>36500</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2113,13 +2158,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="D50">
-        <v>36300</v>
+        <v>40500</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2134,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>36300</v>
+        <v>50300</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2142,13 +2187,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C51">
-        <v>34700</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>50100</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2163,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>34700</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2171,13 +2216,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C52">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2186,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>34100</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2200,16 +2245,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>48700</v>
       </c>
       <c r="D53">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2221,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>32000</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2229,13 +2274,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>46600</v>
       </c>
       <c r="D54">
-        <v>31700</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2250,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>31700</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2258,16 +2303,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C55">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2279,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>31200</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2287,16 +2332,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>42800</v>
       </c>
       <c r="D56">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2308,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>30700</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2316,13 +2361,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C57">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>41700</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2337,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>30000</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2345,10 +2390,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C58">
-        <v>29000</v>
+        <v>39100</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2366,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>29000</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2374,16 +2419,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>15300</v>
+        <v>38500</v>
       </c>
       <c r="D59">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2395,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>28900</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2403,16 +2448,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C60">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2424,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>28800</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2432,10 +2477,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>28000</v>
+        <v>21500</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2444,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>30200</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2453,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>28000</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2461,10 +2506,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C62">
-        <v>25600</v>
+        <v>36500</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2482,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>25600</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2490,13 +2535,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C63">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>36300</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2511,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>25500</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2519,16 +2564,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C64">
-        <v>24700</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2540,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>24700</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2548,10 +2593,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>24200</v>
+        <v>34700</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2569,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>24200</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2577,13 +2622,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2598,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>24000</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2606,10 +2651,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C67">
-        <v>23300</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2618,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2627,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>23300</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2635,16 +2680,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C68">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2656,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>23100</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2664,13 +2709,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C69">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>31700</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2685,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>22900</v>
+        <v>31700</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2693,10 +2738,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>22600</v>
+        <v>30000</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2714,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>22600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2722,10 +2767,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C71">
-        <v>22400</v>
+        <v>29000</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2743,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>22400</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2751,16 +2796,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C72">
-        <v>22000</v>
+        <v>15300</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2772,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>22000</v>
+        <v>28900</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2780,10 +2825,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C73">
-        <v>21500</v>
+        <v>28800</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2801,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>21500</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2809,16 +2854,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2830,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>21100</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2838,7 +2883,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C75">
         <v>21000</v>
@@ -2847,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2859,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>21000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2867,13 +2912,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76">
-        <v>33700</v>
+        <v>25600</v>
       </c>
       <c r="D76">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2888,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>19900</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2896,10 +2941,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C77">
-        <v>19100</v>
+        <v>25500</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2917,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>19100</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2925,10 +2970,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C78">
-        <v>17800</v>
+        <v>24700</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2946,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>17800</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2954,10 +2999,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C79">
-        <v>16100</v>
+        <v>24200</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2975,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>16100</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2983,10 +3028,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C80">
-        <v>14700</v>
+        <v>24000</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3004,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>14700</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3012,10 +3057,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C81">
-        <v>14500</v>
+        <v>23300</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3033,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>14500</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3041,10 +3086,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C82">
-        <v>13600</v>
+        <v>23100</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3062,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>13600</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3070,13 +3115,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>22900</v>
       </c>
       <c r="D83">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3091,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>9000</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3099,10 +3144,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84">
-        <v>6300</v>
+        <v>22600</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3120,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>6300</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3128,10 +3173,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>5000</v>
+        <v>22400</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3149,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>5000</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3157,10 +3202,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C86">
-        <v>2700</v>
+        <v>22000</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3178,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>2700</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3186,16 +3231,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>21100</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3207,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>2700</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3215,100 +3260,490 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>33700</v>
+      </c>
+      <c r="D88">
+        <v>1200</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>19100</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <v>17800</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91">
+        <v>16100</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>15000</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93">
+        <v>14700</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94">
+        <v>14500</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>13600</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>9000</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>8800</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>6300</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>21000</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100">
+        <v>5000</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101">
+        <v>2700</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>2700</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>50</v>
       </c>
-      <c r="C88">
+      <c r="C103">
         <v>200</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
